--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A73E4-A3FC-4539-B977-0BB09AA991AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD67278-F0B5-4B2E-AE9F-CA3956EC3BFB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>if_finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expect2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,18 @@
   </si>
   <si>
     <t>卖掉了50etf，17.005买入迪安诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6234,10 +6242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:N410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6246,7 +6254,7 @@
     <col min="9" max="9" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6272,10 +6280,13 @@
         <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6295,7 +6306,7 @@
         <v>0.61258760563380288</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6321,7 +6332,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6347,7 +6358,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6376,7 +6387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6405,7 +6416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6434,7 +6445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6460,7 +6471,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6486,7 +6497,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6515,7 +6526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6568,7 +6579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6594,7 +6605,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6620,7 +6631,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6653,12 +6664,8 @@
         <f>56000/1.006</f>
         <v>55666.00397614314</v>
       </c>
-      <c r="K15">
-        <f>F15*B15</f>
-        <v>53391.334025406046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6714,10 +6721,6 @@
         <f>J16*1.006</f>
         <v>56336</v>
       </c>
-      <c r="K17">
-        <f t="shared" ref="K17:L34" si="4">F17*B17</f>
-        <v>54249.012415190162</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -6748,10 +6751,6 @@
         <f>J17*1.006</f>
         <v>56674.016000000003</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>54683.004514511682</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
@@ -6788,10 +6787,6 @@
         <f>J18*1.006</f>
         <v>57014.060096000001</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>55120.468550627775</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -6829,10 +6824,6 @@
         <f>J20*1.006</f>
         <v>57356.144456576003</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>55561.432299032793</v>
-      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -6864,12 +6855,8 @@
         <v>43411</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J24" si="5">J21*1.006</f>
+        <f t="shared" ref="J22:J24" si="4">J21*1.006</f>
         <v>57700.281323315459</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>56005.923757425058</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -6904,12 +6891,8 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58046.483011255354</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>56453.971147484452</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -6941,12 +6924,8 @@
         <v>43413</v>
       </c>
       <c r="J24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58394.761909322886</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>56905.602916664327</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -6974,7 +6953,7 @@
         <v>84000</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="6">(F26+D26)/F26</f>
+        <f t="shared" ref="G26" si="5">(F26+D26)/F26</f>
         <v>0.70958642857142862</v>
       </c>
       <c r="H26" s="1">
@@ -6987,10 +6966,6 @@
         <f>J24*1.006</f>
         <v>58745.130480778826</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>57360.84773999764</v>
-      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -7027,10 +7002,6 @@
         <f>J26*1.006</f>
         <v>59097.601263663499</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>57819.73452191762</v>
-      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -7064,12 +7035,8 @@
         <v>34</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J30" si="7">J27*1.006</f>
+        <f t="shared" ref="J28:J30" si="6">J27*1.006</f>
         <v>59452.186871245482</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>58282.292398092963</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -7104,12 +7071,8 @@
         <v>34</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>59808.899992472958</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>58748.550737277707</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -7144,15 +7107,16 @@
         <v>35</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60167.753392427796</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>59218.539143175927</v>
       </c>
       <c r="L30">
         <v>55120.468550627775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>58038.66</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -7191,8 +7155,8 @@
         <v>60528.759912782363</v>
       </c>
       <c r="K32">
-        <f>F32*B32</f>
-        <v>59692.287456321326</v>
+        <f>K31*1.007</f>
+        <v>58444.930619999999</v>
       </c>
       <c r="L32">
         <v>55561.432299032793</v>
@@ -7207,7 +7171,7 @@
         <v>0.7163074494758559</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <f>E33-F33</f>
@@ -7227,15 +7191,15 @@
         <v>43424</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <f>J32*1.006</f>
         <v>60891.932472259061</v>
       </c>
       <c r="K33">
-        <f>F33*B33</f>
-        <v>60169.825755971899</v>
+        <f>K32*1.007</f>
+        <v>58854.045134339991</v>
       </c>
       <c r="L33">
         <v>56005.923757425058</v>
@@ -7250,7 +7214,7 @@
         <v>0.72203790907166276</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <f>E34-F34</f>
@@ -7270,15 +7234,15 @@
         <v>43425</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J36" si="8">J33*1.006</f>
+        <f t="shared" ref="J34:J36" si="7">J33*1.006</f>
         <v>61257.284067092616</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
-        <v>60651.184362019674</v>
+        <f>K33*1.007</f>
+        <v>59266.023450280365</v>
       </c>
       <c r="L34">
         <v>56453.971147484452</v>
@@ -7292,6 +7256,9 @@
         <f t="shared" si="1"/>
         <v>0.72781421234423604</v>
       </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
       <c r="D35">
         <f>E35-F35</f>
         <v>-24061.86</v>
@@ -7310,12 +7277,12 @@
         <v>43426</v>
       </c>
       <c r="J35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61624.827771495169</v>
       </c>
       <c r="K35">
-        <f>F35*B35</f>
-        <v>61136.393836915828</v>
+        <f>K34*1.007</f>
+        <v>59680.885614432322</v>
       </c>
       <c r="L35">
         <v>56905.602916664327</v>
@@ -7336,12 +7303,12 @@
         <v>43427</v>
       </c>
       <c r="J36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61994.576738124139</v>
       </c>
       <c r="K36">
-        <f>F36*B36</f>
-        <v>61625.484987611155</v>
+        <f>K35*1.007</f>
+        <v>60098.651813733341</v>
       </c>
       <c r="L36">
         <v>57360.84773999764</v>
@@ -7366,8 +7333,8 @@
         <v>62366.544198552881</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:L94" si="9">F38*B38</f>
-        <v>62118.488867512038</v>
+        <f>K36*1.007</f>
+        <v>60519.342376429471</v>
       </c>
       <c r="L38">
         <v>57819.73452191762</v>
@@ -7392,8 +7359,8 @@
         <v>62740.743463744198</v>
       </c>
       <c r="K39">
-        <f t="shared" si="9"/>
-        <v>62615.436778452138</v>
+        <f>K38*1.007</f>
+        <v>60942.977773064471</v>
       </c>
       <c r="L39">
         <v>58282.292398092963</v>
@@ -7414,12 +7381,12 @@
         <v>43432</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J42" si="10">J39*1.006</f>
+        <f t="shared" ref="J40:J42" si="8">J39*1.006</f>
         <v>63117.187924526661</v>
       </c>
       <c r="K40">
-        <f t="shared" si="9"/>
-        <v>63116.360272679762</v>
+        <f>K39*1.007</f>
+        <v>61369.578617475912</v>
       </c>
       <c r="L40">
         <v>58748.550737277707</v>
@@ -7440,12 +7407,12 @@
         <v>43433</v>
       </c>
       <c r="J41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>63495.891052073821</v>
       </c>
       <c r="K41">
-        <f t="shared" si="9"/>
-        <v>63621.291154861196</v>
+        <f>K40*1.007</f>
+        <v>61799.165667798239</v>
       </c>
       <c r="L41">
         <v>59218.539143175927</v>
@@ -7466,12 +7433,12 @@
         <v>43434</v>
       </c>
       <c r="J42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>63876.866398386264</v>
       </c>
       <c r="K42">
-        <f t="shared" si="9"/>
-        <v>64130.261484100083</v>
+        <f>K41*1.007</f>
+        <v>62231.759827472823</v>
       </c>
       <c r="L42">
         <v>59692.287456321326</v>
@@ -7496,8 +7463,8 @@
         <v>64260.127596776583</v>
       </c>
       <c r="K44">
-        <f t="shared" si="9"/>
-        <v>64643.303575972888</v>
+        <f>K42*1.007</f>
+        <v>62667.382146265125</v>
       </c>
       <c r="L44">
         <v>60169.825755971899</v>
@@ -7522,8 +7489,8 @@
         <v>64645.688362357243</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
-        <v>65160.450004580671</v>
+        <f>K44*1.007</f>
+        <v>63106.053821288973</v>
       </c>
       <c r="L45">
         <v>60651.184362019674</v>
@@ -7544,12 +7511,12 @@
         <v>43439</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:J48" si="11">J45*1.006</f>
+        <f t="shared" ref="J46:J48" si="9">J45*1.006</f>
         <v>65033.56249253139</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
-        <v>65681.733604617315</v>
+        <f>K45*1.007</f>
+        <v>63547.796198037991</v>
       </c>
       <c r="L46">
         <v>61136.393836915828</v>
@@ -7570,12 +7537,12 @@
         <v>43440</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>65423.763867486581</v>
       </c>
       <c r="K47">
-        <f t="shared" si="9"/>
-        <v>66207.187473454251</v>
+        <f>K46*1.007</f>
+        <v>63992.63077142425</v>
       </c>
       <c r="L47">
         <v>61625.484987611155</v>
@@ -7596,12 +7563,12 @@
         <v>43441</v>
       </c>
       <c r="J48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>65816.306450691496</v>
       </c>
       <c r="K48">
-        <f t="shared" si="9"/>
-        <v>66736.844973241881</v>
+        <f>K47*1.007</f>
+        <v>64440.579186824216</v>
       </c>
       <c r="L48">
         <v>62118.488867512038</v>
@@ -7626,8 +7593,8 @@
         <v>66211.204289395639</v>
       </c>
       <c r="K50">
-        <f t="shared" si="9"/>
-        <v>67270.739733027818</v>
+        <f>K48*1.007</f>
+        <v>64891.663241131981</v>
       </c>
       <c r="L50">
         <v>62615.436778452138</v>
@@ -7652,8 +7619,8 @@
         <v>66608.471515132012</v>
       </c>
       <c r="K51">
-        <f t="shared" si="9"/>
-        <v>67808.905650892048</v>
+        <f>K50*1.007</f>
+        <v>65345.904883819894</v>
       </c>
       <c r="L51">
         <v>63116.360272679762</v>
@@ -7674,12 +7641,12 @@
         <v>43446</v>
       </c>
       <c r="J52">
-        <f t="shared" ref="J52:J54" si="12">J51*1.006</f>
+        <f t="shared" ref="J52:J54" si="10">J51*1.006</f>
         <v>67008.122344222807</v>
       </c>
       <c r="K52">
-        <f t="shared" si="9"/>
-        <v>68351.376896099187</v>
+        <f>K51*1.007</f>
+        <v>65803.326218006623</v>
       </c>
       <c r="L52">
         <v>63621.291154861196</v>
@@ -7700,12 +7667,12 @@
         <v>43447</v>
       </c>
       <c r="J53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>67410.171078288142</v>
       </c>
       <c r="K53">
-        <f t="shared" si="9"/>
-        <v>68898.187911267974</v>
+        <f>K52*1.007</f>
+        <v>66263.949501532668</v>
       </c>
       <c r="L53">
         <v>64130.261484100083</v>
@@ -7726,12 +7693,12 @@
         <v>43448</v>
       </c>
       <c r="J54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>67814.632104757868</v>
       </c>
       <c r="K54">
-        <f t="shared" si="9"/>
-        <v>69449.373414558126</v>
+        <f>K53*1.007</f>
+        <v>66727.797148043392</v>
       </c>
       <c r="L54">
         <v>64643.303575972888</v>
@@ -7756,8 +7723,8 @@
         <v>68221.519897386417</v>
       </c>
       <c r="K56">
-        <f t="shared" si="9"/>
-        <v>70004.96840187459</v>
+        <f>K54*1.007</f>
+        <v>67194.891728079689</v>
       </c>
       <c r="L56">
         <v>65160.450004580671</v>
@@ -7782,8 +7749,8 @@
         <v>68630.849016770735</v>
       </c>
       <c r="K57">
-        <f t="shared" si="9"/>
-        <v>70565.008149089583</v>
+        <f>K56*1.007</f>
+        <v>67665.255970176237</v>
       </c>
       <c r="L57">
         <v>65681.733604617315</v>
@@ -7804,12 +7771,12 @@
         <v>43453</v>
       </c>
       <c r="J58">
-        <f t="shared" ref="J58:J60" si="13">J57*1.006</f>
+        <f t="shared" ref="J58:J60" si="11">J57*1.006</f>
         <v>69042.634110871353</v>
       </c>
       <c r="K58">
-        <f t="shared" si="9"/>
-        <v>71129.528214282298</v>
+        <f>K57*1.007</f>
+        <v>68138.912761967469</v>
       </c>
       <c r="L58">
         <v>66207.187473454251</v>
@@ -7830,12 +7797,12 @@
         <v>43454</v>
       </c>
       <c r="J59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>69456.88991553658</v>
       </c>
       <c r="K59">
-        <f t="shared" si="9"/>
-        <v>71698.564439996553</v>
+        <f>K58*1.007</f>
+        <v>68615.885151301234</v>
       </c>
       <c r="L59">
         <v>66736.844973241881</v>
@@ -7856,12 +7823,12 @@
         <v>43455</v>
       </c>
       <c r="J60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>69873.631255029803</v>
       </c>
       <c r="K60">
-        <f t="shared" si="9"/>
-        <v>72272.152955516518</v>
+        <f>K59*1.007</f>
+        <v>69096.196347360339</v>
       </c>
       <c r="L60">
         <v>67270.739733027818</v>
@@ -7886,8 +7853,8 @@
         <v>70292.873042559979</v>
       </c>
       <c r="K62">
-        <f t="shared" si="9"/>
-        <v>72850.33017916065</v>
+        <f>K60*1.007</f>
+        <v>69579.869721791852</v>
       </c>
       <c r="L62">
         <v>67808.905650892048</v>
@@ -7912,8 +7879,8 @@
         <v>70714.630280815341</v>
       </c>
       <c r="K63">
-        <f t="shared" si="9"/>
-        <v>73433.13282059395</v>
+        <f>K62*1.007</f>
+        <v>70066.928809844394</v>
       </c>
       <c r="L63">
         <v>68351.376896099187</v>
@@ -7934,12 +7901,12 @@
         <v>43460</v>
       </c>
       <c r="J64">
-        <f t="shared" ref="J64:J66" si="14">J63*1.006</f>
+        <f t="shared" ref="J64:J66" si="12">J63*1.006</f>
         <v>71138.918062500234</v>
       </c>
       <c r="K64">
-        <f t="shared" si="9"/>
-        <v>74020.597883158698</v>
+        <f>K63*1.007</f>
+        <v>70557.397311513298</v>
       </c>
       <c r="L64">
         <v>68898.187911267974</v>
@@ -7960,12 +7927,12 @@
         <v>43461</v>
       </c>
       <c r="J65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>71565.751570875233</v>
       </c>
       <c r="K65">
-        <f t="shared" si="9"/>
-        <v>74612.762666223964</v>
+        <f>K64*1.007</f>
+        <v>71051.29909269388</v>
       </c>
       <c r="L65">
         <v>69449.373414558126</v>
@@ -7986,12 +7953,12 @@
         <v>43462</v>
       </c>
       <c r="J66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>71995.146080300488</v>
       </c>
       <c r="K66">
-        <f t="shared" si="9"/>
-        <v>75209.664767553753</v>
+        <f>K65*1.007</f>
+        <v>71548.658186342727</v>
       </c>
       <c r="L66">
         <v>70004.96840187459</v>
@@ -8016,8 +7983,8 @@
         <v>72427.116956782294</v>
       </c>
       <c r="K68">
-        <f t="shared" si="9"/>
-        <v>75811.342085694181</v>
+        <f>K66*1.007</f>
+        <v>72049.498793647115</v>
       </c>
       <c r="L68">
         <v>70565.008149089583</v>
@@ -8042,8 +8009,8 @@
         <v>72861.679658522989</v>
       </c>
       <c r="K69">
-        <f t="shared" si="9"/>
-        <v>76417.832822379743</v>
+        <f>K68*1.007</f>
+        <v>72553.845285202638</v>
       </c>
       <c r="L69">
         <v>71129.528214282298</v>
@@ -8064,12 +8031,12 @@
         <v>43469</v>
       </c>
       <c r="J70">
-        <f t="shared" ref="J70:J88" si="15">J69*1.006</f>
+        <f t="shared" ref="J70:J88" si="13">J69*1.006</f>
         <v>73298.849736474134</v>
       </c>
       <c r="K70">
-        <f t="shared" si="9"/>
-        <v>77029.175484958774</v>
+        <f>K69*1.007</f>
+        <v>73061.722202199046</v>
       </c>
       <c r="L70">
         <v>71698.564439996553</v>
@@ -8097,8 +8064,8 @@
         <v>73738.642834892977</v>
       </c>
       <c r="K72">
-        <f t="shared" si="9"/>
-        <v>77645.408888838443</v>
+        <f>K70*1.007</f>
+        <v>73573.154257614427</v>
       </c>
       <c r="L72">
         <v>72272.152955516518</v>
@@ -8119,12 +8086,12 @@
         <v>43473</v>
       </c>
       <c r="J73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>74181.074691902337</v>
       </c>
       <c r="K73">
-        <f t="shared" si="9"/>
-        <v>78266.572159949152</v>
+        <f>K72*1.007</f>
+        <v>74088.166337417715</v>
       </c>
       <c r="L73">
         <v>72850.33017916065</v>
@@ -8145,12 +8112,12 @@
         <v>43474</v>
       </c>
       <c r="J74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>74626.161140053751</v>
       </c>
       <c r="K74">
-        <f t="shared" si="9"/>
-        <v>78892.704737228749</v>
+        <f>K73*1.007</f>
+        <v>74606.783501779631</v>
       </c>
       <c r="L74">
         <v>73433.13282059395</v>
@@ -8171,12 +8138,12 @@
         <v>43475</v>
       </c>
       <c r="J75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>75073.918106894067</v>
       </c>
       <c r="K75">
-        <f t="shared" si="9"/>
-        <v>79523.846375126581</v>
+        <f>K74*1.007</f>
+        <v>75129.030986292084</v>
       </c>
       <c r="L75">
         <v>74020.597883158698</v>
@@ -8197,12 +8164,12 @@
         <v>43476</v>
       </c>
       <c r="J76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>75524.361615535425</v>
       </c>
       <c r="K76">
-        <f t="shared" si="9"/>
-        <v>80160.037146127594</v>
+        <f>K75*1.007</f>
+        <v>75654.934203196128</v>
       </c>
       <c r="L76">
         <v>74612.762666223964</v>
@@ -8230,8 +8197,8 @@
         <v>75977.507785228634</v>
       </c>
       <c r="K78">
-        <f t="shared" si="9"/>
-        <v>80801.317443296604</v>
+        <f>K76*1.007</f>
+        <v>76184.518742618486</v>
       </c>
       <c r="L78">
         <v>75209.664767553753</v>
@@ -8242,7 +8209,7 @@
         <v>66</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:B87" si="16">B78*1.008</f>
+        <f t="shared" ref="B79:B87" si="14">B78*1.008</f>
         <v>0.96961580931955937</v>
       </c>
       <c r="F79">
@@ -8252,12 +8219,12 @@
         <v>43480</v>
       </c>
       <c r="J79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>76433.372831940011</v>
       </c>
       <c r="K79">
-        <f t="shared" si="9"/>
-        <v>81447.727982842989</v>
+        <f>K78*1.007</f>
+        <v>76717.810373816814</v>
       </c>
       <c r="L79">
         <v>75811.342085694181</v>
@@ -8268,7 +8235,7 @@
         <v>67</v>
       </c>
       <c r="B80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.97737273579411588</v>
       </c>
       <c r="F80">
@@ -8278,23 +8245,23 @@
         <v>43481</v>
       </c>
       <c r="J80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>76891.973068931649</v>
       </c>
       <c r="K80">
-        <f t="shared" si="9"/>
-        <v>82099.309806705729</v>
+        <f>K79*1.007</f>
+        <v>77254.835046433524</v>
       </c>
       <c r="L80">
         <v>76417.832822379743</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>68</v>
       </c>
       <c r="B81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.98519171768046876</v>
       </c>
       <c r="F81">
@@ -8304,23 +8271,23 @@
         <v>43482</v>
       </c>
       <c r="J81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>77353.324907345246</v>
       </c>
       <c r="K81">
-        <f t="shared" si="9"/>
-        <v>82756.104285159381</v>
+        <f>K80*1.007</f>
+        <v>77795.618891758553</v>
       </c>
       <c r="L81">
         <v>77029.175484958774</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>69</v>
       </c>
       <c r="B82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.9930732514219125</v>
       </c>
       <c r="F82">
@@ -8330,21 +8297,21 @@
         <v>43483</v>
       </c>
       <c r="J82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>77817.444856789312</v>
       </c>
       <c r="K82">
-        <f t="shared" si="9"/>
-        <v>83418.153119440656</v>
+        <f>K81*1.007</f>
+        <v>78340.188224000856</v>
       </c>
       <c r="L82">
         <v>77645.408888838443</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>70</v>
       </c>
@@ -8363,19 +8330,19 @@
         <v>78284.349525930054</v>
       </c>
       <c r="K84">
-        <f t="shared" si="9"/>
-        <v>84085.498344396183</v>
+        <f>K82*1.007</f>
+        <v>78888.569541568853</v>
       </c>
       <c r="L84">
         <v>78266.572159949152</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>71</v>
       </c>
       <c r="B85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.0090259801327541</v>
       </c>
       <c r="F85">
@@ -8385,18 +8352,18 @@
         <v>43487</v>
       </c>
       <c r="J85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>78754.055623085631</v>
       </c>
       <c r="K85">
-        <f t="shared" si="9"/>
-        <v>84758.182331151344</v>
+        <f>K84*1.007</f>
+        <v>79440.789528359834</v>
       </c>
       <c r="L85">
         <v>78892.704737228749</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>72</v>
       </c>
@@ -8411,23 +8378,23 @@
         <v>43488</v>
       </c>
       <c r="J86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>79226.579956824149</v>
       </c>
       <c r="K86">
-        <f t="shared" si="9"/>
-        <v>85436.24778980056</v>
+        <f>K85*1.007</f>
+        <v>79996.87505505835</v>
       </c>
       <c r="L86">
         <v>79523.846375126581</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>73</v>
       </c>
       <c r="B87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.0252349734776067</v>
       </c>
       <c r="F87">
@@ -8437,18 +8404,18 @@
         <v>43489</v>
       </c>
       <c r="J87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>79701.939436565095</v>
       </c>
       <c r="K87">
-        <f t="shared" si="9"/>
-        <v>86119.73777211897</v>
+        <f>K86*1.007</f>
+        <v>80556.853180443752</v>
       </c>
       <c r="L87">
         <v>80160.037146127594</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>74</v>
       </c>
@@ -8463,18 +8430,18 @@
         <v>43490</v>
       </c>
       <c r="J88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>80180.15107318449</v>
       </c>
       <c r="K88">
-        <f t="shared" si="9"/>
-        <v>86808.69567429593</v>
+        <f>K87*1.007</f>
+        <v>81120.751152706856</v>
       </c>
       <c r="L88">
         <v>80801.317443296604</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>76</v>
       </c>
@@ -8493,14 +8460,14 @@
         <v>80661.231979623597</v>
       </c>
       <c r="K90">
-        <f t="shared" si="9"/>
-        <v>87503.165239690294</v>
+        <f>K88*1.007</f>
+        <v>81688.59641077579</v>
       </c>
       <c r="L90">
         <v>81447.727982842989</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>77</v>
       </c>
@@ -8515,18 +8482,18 @@
         <v>43494</v>
       </c>
       <c r="J91">
-        <f>J90*1.006</f>
+        <f t="shared" ref="J91:J98" si="15">J90*1.006</f>
         <v>81145.199371501338</v>
       </c>
       <c r="K91">
-        <f t="shared" si="9"/>
-        <v>88203.190561607815</v>
+        <f t="shared" ref="K35:K94" si="16">K90*1.007</f>
+        <v>82260.416585651212</v>
       </c>
       <c r="L91">
         <v>82099.309806705729</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>78</v>
       </c>
@@ -8541,18 +8508,18 @@
         <v>43495</v>
       </c>
       <c r="J92">
-        <f>J91*1.006</f>
+        <f t="shared" si="15"/>
         <v>81632.070567730349</v>
       </c>
       <c r="K92">
-        <f t="shared" si="9"/>
-        <v>88908.816086100691</v>
+        <f t="shared" si="16"/>
+        <v>82836.239501750766</v>
       </c>
       <c r="L92">
         <v>82756.104285159381</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>79</v>
       </c>
@@ -8567,18 +8534,18 @@
         <v>43496</v>
       </c>
       <c r="J93">
-        <f>J92*1.006</f>
+        <f t="shared" si="15"/>
         <v>82121.862991136732</v>
       </c>
       <c r="K93">
-        <f t="shared" si="9"/>
-        <v>89620.086614789485</v>
+        <f t="shared" si="16"/>
+        <v>83416.093178263007</v>
       </c>
       <c r="L93">
         <v>83418.153119440656</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>80</v>
       </c>
@@ -8593,39 +8560,1922 @@
         <v>43497</v>
       </c>
       <c r="J94">
-        <f>J93*1.006</f>
+        <f t="shared" si="15"/>
         <v>82614.594169083546</v>
       </c>
       <c r="K94">
-        <f t="shared" si="9"/>
-        <v>90337.047307707806</v>
+        <f t="shared" si="16"/>
+        <v>84000.00583051084</v>
       </c>
       <c r="L94">
         <v>84085.498344396183</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J95">
-        <f>J94*1.006</f>
+        <f t="shared" si="15"/>
         <v>83110.281734098055</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J96">
-        <f>J95*1.006</f>
+        <f t="shared" si="15"/>
         <v>83608.94342450265</v>
       </c>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J97">
-        <f>J96*1.006</f>
+        <f t="shared" si="15"/>
         <v>84110.597085049667</v>
       </c>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <f>N96/1.007</f>
+        <v>83416.087388282031</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J98">
-        <f>J97*1.006</f>
+        <f t="shared" si="15"/>
         <v>84615.260667559967</v>
+      </c>
+      <c r="N98">
+        <f t="shared" ref="N98:N161" si="18">N97/1.007</f>
+        <v>82836.233752017914</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <f t="shared" si="18"/>
+        <v>82260.410875886722</v>
+      </c>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <f t="shared" si="18"/>
+        <v>81688.590740701824</v>
+      </c>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <f t="shared" si="18"/>
+        <v>81120.745522047495</v>
+      </c>
+    </row>
+    <row r="102" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <f t="shared" si="18"/>
+        <v>80556.847588925026</v>
+      </c>
+    </row>
+    <row r="103" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <f t="shared" si="18"/>
+        <v>79996.869502408183</v>
+      </c>
+    </row>
+    <row r="104" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <f t="shared" si="18"/>
+        <v>79440.784014308039</v>
+      </c>
+    </row>
+    <row r="105" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <f t="shared" si="18"/>
+        <v>78888.564065847124</v>
+      </c>
+    </row>
+    <row r="106" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <f t="shared" si="18"/>
+        <v>78340.182786342732</v>
+      </c>
+    </row>
+    <row r="107" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <f t="shared" si="18"/>
+        <v>77795.61349189945</v>
+      </c>
+    </row>
+    <row r="108" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <f t="shared" si="18"/>
+        <v>77254.829684110678</v>
+      </c>
+    </row>
+    <row r="109" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <f t="shared" si="18"/>
+        <v>76717.805048769296</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <f t="shared" si="18"/>
+        <v>76184.513454587199</v>
+      </c>
+    </row>
+    <row r="111" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <f t="shared" si="18"/>
+        <v>75654.928951923735</v>
+      </c>
+    </row>
+    <row r="112" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <f t="shared" si="18"/>
+        <v>75129.025771523084</v>
+      </c>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <f t="shared" si="18"/>
+        <v>74606.778323260267</v>
+      </c>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <f t="shared" si="18"/>
+        <v>74088.161194896005</v>
+      </c>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <f t="shared" si="18"/>
+        <v>73573.149150840138</v>
+      </c>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <f t="shared" si="18"/>
+        <v>73061.717130923673</v>
+      </c>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <f t="shared" si="18"/>
+        <v>72553.840249179426</v>
+      </c>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <f t="shared" si="18"/>
+        <v>72049.493792631023</v>
+      </c>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <f t="shared" si="18"/>
+        <v>71548.653220090404</v>
+      </c>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <f t="shared" si="18"/>
+        <v>71051.294160963662</v>
+      </c>
+    </row>
+    <row r="121" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <f t="shared" si="18"/>
+        <v>70557.392414065209</v>
+      </c>
+    </row>
+    <row r="122" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <f t="shared" si="18"/>
+        <v>70066.923946440133</v>
+      </c>
+    </row>
+    <row r="123" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <f t="shared" si="18"/>
+        <v>69579.864892194775</v>
+      </c>
+    </row>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <f t="shared" si="18"/>
+        <v>69096.191551335432</v>
+      </c>
+    </row>
+    <row r="125" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <f t="shared" si="18"/>
+        <v>68615.880388615129</v>
+      </c>
+    </row>
+    <row r="126" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <f t="shared" si="18"/>
+        <v>68138.908032388412</v>
+      </c>
+    </row>
+    <row r="127" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <f t="shared" si="18"/>
+        <v>67665.251273474103</v>
+      </c>
+    </row>
+    <row r="128" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <f t="shared" si="18"/>
+        <v>67194.887064025927</v>
+      </c>
+    </row>
+    <row r="129" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <f t="shared" si="18"/>
+        <v>66727.792516411049</v>
+      </c>
+    </row>
+    <row r="130" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <f t="shared" si="18"/>
+        <v>66263.94490209638</v>
+      </c>
+    </row>
+    <row r="131" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <f t="shared" si="18"/>
+        <v>65803.321650542595</v>
+      </c>
+    </row>
+    <row r="132" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <f t="shared" si="18"/>
+        <v>65345.900348105861</v>
+      </c>
+    </row>
+    <row r="133" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <f t="shared" si="18"/>
+        <v>64891.65873694724</v>
+      </c>
+    </row>
+    <row r="134" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <f t="shared" si="18"/>
+        <v>64440.574713949602</v>
+      </c>
+    </row>
+    <row r="135" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <f t="shared" si="18"/>
+        <v>63992.626329642117</v>
+      </c>
+    </row>
+    <row r="136" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <f t="shared" si="18"/>
+        <v>63547.791787132199</v>
+      </c>
+    </row>
+    <row r="137" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <f t="shared" si="18"/>
+        <v>63106.049441044888</v>
+      </c>
+    </row>
+    <row r="138" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <f t="shared" si="18"/>
+        <v>62667.377796469606</v>
+      </c>
+    </row>
+    <row r="139" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <f t="shared" si="18"/>
+        <v>62231.755507914211</v>
+      </c>
+    </row>
+    <row r="140" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <f t="shared" si="18"/>
+        <v>61799.161378266355</v>
+      </c>
+    </row>
+    <row r="141" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <f t="shared" si="18"/>
+        <v>61369.574357762031</v>
+      </c>
+    </row>
+    <row r="142" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <f t="shared" si="18"/>
+        <v>60942.973542961307</v>
+      </c>
+    </row>
+    <row r="143" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <f t="shared" si="18"/>
+        <v>60519.338175731194</v>
+      </c>
+    </row>
+    <row r="144" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <f t="shared" si="18"/>
+        <v>60098.647642235555</v>
+      </c>
+    </row>
+    <row r="145" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <f t="shared" si="18"/>
+        <v>59680.881471932036</v>
+      </c>
+    </row>
+    <row r="146" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <f t="shared" si="18"/>
+        <v>59266.019336576013</v>
+      </c>
+    </row>
+    <row r="147" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <f t="shared" si="18"/>
+        <v>58854.041049231397</v>
+      </c>
+    </row>
+    <row r="148" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <f t="shared" si="18"/>
+        <v>58444.926563288383</v>
+      </c>
+    </row>
+    <row r="149" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <f t="shared" si="18"/>
+        <v>58038.655971487977</v>
+      </c>
+    </row>
+    <row r="150" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <f t="shared" si="18"/>
+        <v>57635.209504953309</v>
+      </c>
+    </row>
+    <row r="151" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <f t="shared" si="18"/>
+        <v>57234.567532227724</v>
+      </c>
+    </row>
+    <row r="152" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <f t="shared" si="18"/>
+        <v>56836.710558319493</v>
+      </c>
+    </row>
+    <row r="153" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <f t="shared" si="18"/>
+        <v>56441.619223753223</v>
+      </c>
+    </row>
+    <row r="154" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <f t="shared" si="18"/>
+        <v>56049.274303627833</v>
+      </c>
+    </row>
+    <row r="155" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <f t="shared" si="18"/>
+        <v>55659.656706681075</v>
+      </c>
+    </row>
+    <row r="156" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <f t="shared" si="18"/>
+        <v>55272.747474360556</v>
+      </c>
+    </row>
+    <row r="157" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <f t="shared" si="18"/>
+        <v>54888.527779901255</v>
+      </c>
+    </row>
+    <row r="158" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <f t="shared" si="18"/>
+        <v>54506.978927409393</v>
+      </c>
+    </row>
+    <row r="159" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <f t="shared" si="18"/>
+        <v>54128.082350952733</v>
+      </c>
+    </row>
+    <row r="160" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <f t="shared" si="18"/>
+        <v>53751.819613657135</v>
+      </c>
+    </row>
+    <row r="161" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <f t="shared" si="18"/>
+        <v>53378.172406809477</v>
+      </c>
+    </row>
+    <row r="162" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <f t="shared" ref="N162:N225" si="19">N161/1.007</f>
+        <v>53007.122548966712</v>
+      </c>
+    </row>
+    <row r="163" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <f t="shared" si="19"/>
+        <v>52638.651985071221</v>
+      </c>
+    </row>
+    <row r="164" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <f t="shared" si="19"/>
+        <v>52272.74278557222</v>
+      </c>
+    </row>
+    <row r="165" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <f t="shared" si="19"/>
+        <v>51909.37714555335</v>
+      </c>
+    </row>
+    <row r="166" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <f t="shared" si="19"/>
+        <v>51548.537383866293</v>
+      </c>
+    </row>
+    <row r="167" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <f t="shared" si="19"/>
+        <v>51190.205942270404</v>
+      </c>
+    </row>
+    <row r="168" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <f t="shared" si="19"/>
+        <v>50834.365384578363</v>
+      </c>
+    </row>
+    <row r="169" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <f t="shared" si="19"/>
+        <v>50480.998395807714</v>
+      </c>
+    </row>
+    <row r="170" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <f t="shared" si="19"/>
+        <v>50130.087781338349</v>
+      </c>
+    </row>
+    <row r="171" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <f t="shared" si="19"/>
+        <v>49781.616466075822</v>
+      </c>
+    </row>
+    <row r="172" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <f t="shared" si="19"/>
+        <v>49435.567493620481</v>
+      </c>
+    </row>
+    <row r="173" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <f t="shared" si="19"/>
+        <v>49091.924025442393</v>
+      </c>
+    </row>
+    <row r="174" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <f t="shared" si="19"/>
+        <v>48750.669340061962</v>
+      </c>
+    </row>
+    <row r="175" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <f t="shared" si="19"/>
+        <v>48411.786832236314</v>
+      </c>
+    </row>
+    <row r="176" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <f t="shared" si="19"/>
+        <v>48075.260012151259</v>
+      </c>
+    </row>
+    <row r="177" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <f t="shared" si="19"/>
+        <v>47741.072504618933</v>
+      </c>
+    </row>
+    <row r="178" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <f t="shared" si="19"/>
+        <v>47409.208048280969</v>
+      </c>
+    </row>
+    <row r="179" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <f t="shared" si="19"/>
+        <v>47079.650494817251</v>
+      </c>
+    </row>
+    <row r="180" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <f t="shared" si="19"/>
+        <v>46752.383808160135</v>
+      </c>
+    </row>
+    <row r="181" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <f t="shared" si="19"/>
+        <v>46427.392063714142</v>
+      </c>
+    </row>
+    <row r="182" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <f t="shared" si="19"/>
+        <v>46104.659447581078</v>
+      </c>
+    </row>
+    <row r="183" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <f t="shared" si="19"/>
+        <v>45784.170255790552</v>
+      </c>
+    </row>
+    <row r="184" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <f t="shared" si="19"/>
+        <v>45465.908893535809</v>
+      </c>
+    </row>
+    <row r="185" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <f t="shared" si="19"/>
+        <v>45149.859874414906</v>
+      </c>
+    </row>
+    <row r="186" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <f t="shared" si="19"/>
+        <v>44836.007819677172</v>
+      </c>
+    </row>
+    <row r="187" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <f t="shared" si="19"/>
+        <v>44524.337457474852</v>
+      </c>
+    </row>
+    <row r="188" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <f t="shared" si="19"/>
+        <v>44214.833622120015</v>
+      </c>
+    </row>
+    <row r="189" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <f t="shared" si="19"/>
+        <v>43907.481253346596</v>
+      </c>
+    </row>
+    <row r="190" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <f t="shared" si="19"/>
+        <v>43602.26539557756</v>
+      </c>
+    </row>
+    <row r="191" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <f t="shared" si="19"/>
+        <v>43299.171197197182</v>
+      </c>
+    </row>
+    <row r="192" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <f t="shared" si="19"/>
+        <v>42998.183909828389</v>
+      </c>
+    </row>
+    <row r="193" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <f t="shared" si="19"/>
+        <v>42699.28888761509</v>
+      </c>
+    </row>
+    <row r="194" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <f t="shared" si="19"/>
+        <v>42402.471586509528</v>
+      </c>
+    </row>
+    <row r="195" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <f t="shared" si="19"/>
+        <v>42107.717563564584</v>
+      </c>
+    </row>
+    <row r="196" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <f t="shared" si="19"/>
+        <v>41815.012476230972</v>
+      </c>
+    </row>
+    <row r="197" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <f t="shared" si="19"/>
+        <v>41524.342081659357</v>
+      </c>
+    </row>
+    <row r="198" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <f t="shared" si="19"/>
+        <v>41235.692236007308</v>
+      </c>
+    </row>
+    <row r="199" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <f t="shared" si="19"/>
+        <v>40949.048893751053</v>
+      </c>
+    </row>
+    <row r="200" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <f t="shared" si="19"/>
+        <v>40664.398107002045</v>
+      </c>
+    </row>
+    <row r="201" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <f t="shared" si="19"/>
+        <v>40381.726024828255</v>
+      </c>
+    </row>
+    <row r="202" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <f t="shared" si="19"/>
+        <v>40101.018892580199</v>
+      </c>
+    </row>
+    <row r="203" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <f t="shared" si="19"/>
+        <v>39822.263051221649</v>
+      </c>
+    </row>
+    <row r="204" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <f t="shared" si="19"/>
+        <v>39545.444936665001</v>
+      </c>
+    </row>
+    <row r="205" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <f t="shared" si="19"/>
+        <v>39270.551079111225</v>
+      </c>
+    </row>
+    <row r="206" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <f t="shared" si="19"/>
+        <v>38997.568102394471</v>
+      </c>
+    </row>
+    <row r="207" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <f t="shared" si="19"/>
+        <v>38726.482723331159</v>
+      </c>
+    </row>
+    <row r="208" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <f t="shared" si="19"/>
+        <v>38457.28175107365</v>
+      </c>
+    </row>
+    <row r="209" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <f t="shared" si="19"/>
+        <v>38189.952086468373</v>
+      </c>
+    </row>
+    <row r="210" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <f t="shared" si="19"/>
+        <v>37924.480721418448</v>
+      </c>
+    </row>
+    <row r="211" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <f t="shared" si="19"/>
+        <v>37660.854738250695</v>
+      </c>
+    </row>
+    <row r="212" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <f t="shared" si="19"/>
+        <v>37399.06130908709</v>
+      </c>
+    </row>
+    <row r="213" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <f t="shared" si="19"/>
+        <v>37139.087695220551</v>
+      </c>
+    </row>
+    <row r="214" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <f t="shared" si="19"/>
+        <v>36880.921246495091</v>
+      </c>
+    </row>
+    <row r="215" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <f t="shared" si="19"/>
+        <v>36624.549400690259</v>
+      </c>
+    </row>
+    <row r="216" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <f t="shared" si="19"/>
+        <v>36369.959682909895</v>
+      </c>
+    </row>
+    <row r="217" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <f t="shared" si="19"/>
+        <v>36117.139704975074</v>
+      </c>
+    </row>
+    <row r="218" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <f t="shared" si="19"/>
+        <v>35866.077164821327</v>
+      </c>
+    </row>
+    <row r="219" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <f t="shared" si="19"/>
+        <v>35616.759845900029</v>
+      </c>
+    </row>
+    <row r="220" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <f t="shared" si="19"/>
+        <v>35369.175616583947</v>
+      </c>
+    </row>
+    <row r="221" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <f t="shared" si="19"/>
+        <v>35123.312429576916</v>
+      </c>
+    </row>
+    <row r="222" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <f t="shared" si="19"/>
+        <v>34879.158321327624</v>
+      </c>
+    </row>
+    <row r="223" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <f t="shared" si="19"/>
+        <v>34636.701411447495</v>
+      </c>
+    </row>
+    <row r="224" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <f t="shared" si="19"/>
+        <v>34395.929902132571</v>
+      </c>
+    </row>
+    <row r="225" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <f t="shared" si="19"/>
+        <v>34156.832077589446</v>
+      </c>
+    </row>
+    <row r="226" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <f t="shared" ref="N226:N289" si="20">N225/1.007</f>
+        <v>33919.396303465197</v>
+      </c>
+    </row>
+    <row r="227" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <f t="shared" si="20"/>
+        <v>33683.611026281229</v>
+      </c>
+    </row>
+    <row r="228" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <f t="shared" si="20"/>
+        <v>33449.464772871135</v>
+      </c>
+    </row>
+    <row r="229" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <f t="shared" si="20"/>
+        <v>33216.946149822383</v>
+      </c>
+    </row>
+    <row r="230" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <f t="shared" si="20"/>
+        <v>32986.043842921936</v>
+      </c>
+    </row>
+    <row r="231" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <f t="shared" si="20"/>
+        <v>32756.746616605698</v>
+      </c>
+    </row>
+    <row r="232" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <f t="shared" si="20"/>
+        <v>32529.043313411818</v>
+      </c>
+    </row>
+    <row r="233" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <f t="shared" si="20"/>
+        <v>32302.922853437758</v>
+      </c>
+    </row>
+    <row r="234" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <f t="shared" si="20"/>
+        <v>32078.374233801154</v>
+      </c>
+    </row>
+    <row r="235" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <f t="shared" si="20"/>
+        <v>31855.386528104427</v>
+      </c>
+    </row>
+    <row r="236" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <f t="shared" si="20"/>
+        <v>31633.948885903108</v>
+      </c>
+    </row>
+    <row r="237" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <f t="shared" si="20"/>
+        <v>31414.050532177866</v>
+      </c>
+    </row>
+    <row r="238" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <f t="shared" si="20"/>
+        <v>31195.680766810197</v>
+      </c>
+    </row>
+    <row r="239" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <f t="shared" si="20"/>
+        <v>30978.82896406177</v>
+      </c>
+    </row>
+    <row r="240" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <f t="shared" si="20"/>
+        <v>30763.484572057372</v>
+      </c>
+    </row>
+    <row r="241" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <f t="shared" si="20"/>
+        <v>30549.637112271474</v>
+      </c>
+    </row>
+    <row r="242" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <f t="shared" si="20"/>
+        <v>30337.276179018347</v>
+      </c>
+    </row>
+    <row r="243" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <f t="shared" si="20"/>
+        <v>30126.391438945731</v>
+      </c>
+    </row>
+    <row r="244" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <f t="shared" si="20"/>
+        <v>29916.972630532011</v>
+      </c>
+    </row>
+    <row r="245" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <f t="shared" si="20"/>
+        <v>29709.009563586907</v>
+      </c>
+    </row>
+    <row r="246" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <f t="shared" si="20"/>
+        <v>29502.492118755621</v>
+      </c>
+    </row>
+    <row r="247" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <f t="shared" si="20"/>
+        <v>29297.410247026441</v>
+      </c>
+    </row>
+    <row r="248" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <f t="shared" si="20"/>
+        <v>29093.753969241752</v>
+      </c>
+    </row>
+    <row r="249" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <f t="shared" si="20"/>
+        <v>28891.513375612467</v>
+      </c>
+    </row>
+    <row r="250" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <f t="shared" si="20"/>
+        <v>28690.678625235818</v>
+      </c>
+    </row>
+    <row r="251" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <f t="shared" si="20"/>
+        <v>28491.239945616504</v>
+      </c>
+    </row>
+    <row r="252" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <f t="shared" si="20"/>
+        <v>28293.18763219117</v>
+      </c>
+    </row>
+    <row r="253" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <f t="shared" si="20"/>
+        <v>28096.51204785618</v>
+      </c>
+    </row>
+    <row r="254" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <f t="shared" si="20"/>
+        <v>27901.203622498691</v>
+      </c>
+    </row>
+    <row r="255" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <f t="shared" si="20"/>
+        <v>27707.252852530979</v>
+      </c>
+    </row>
+    <row r="256" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <f t="shared" si="20"/>
+        <v>27514.650300427988</v>
+      </c>
+    </row>
+    <row r="257" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <f t="shared" si="20"/>
+        <v>27323.386594268115</v>
+      </c>
+    </row>
+    <row r="258" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <f t="shared" si="20"/>
+        <v>27133.452427277178</v>
+      </c>
+    </row>
+    <row r="259" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <f t="shared" si="20"/>
+        <v>26944.838557375551</v>
+      </c>
+    </row>
+    <row r="260" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <f t="shared" si="20"/>
+        <v>26757.535806728454</v>
+      </c>
+    </row>
+    <row r="261" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <f t="shared" si="20"/>
+        <v>26571.535061299361</v>
+      </c>
+    </row>
+    <row r="262" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <f t="shared" si="20"/>
+        <v>26386.827270406517</v>
+      </c>
+    </row>
+    <row r="263" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <f t="shared" si="20"/>
+        <v>26203.40344628254</v>
+      </c>
+    </row>
+    <row r="264" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <f t="shared" si="20"/>
+        <v>26021.254663637083</v>
+      </c>
+    </row>
+    <row r="265" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <f t="shared" si="20"/>
+        <v>25840.372059222529</v>
+      </c>
+    </row>
+    <row r="266" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <f t="shared" si="20"/>
+        <v>25660.746831402714</v>
+      </c>
+    </row>
+    <row r="267" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <f t="shared" si="20"/>
+        <v>25482.370239724645</v>
+      </c>
+    </row>
+    <row r="268" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <f t="shared" si="20"/>
+        <v>25305.233604493194</v>
+      </c>
+    </row>
+    <row r="269" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <f t="shared" si="20"/>
+        <v>25129.328306348754</v>
+      </c>
+    </row>
+    <row r="270" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <f t="shared" si="20"/>
+        <v>24954.645785847821</v>
+      </c>
+    </row>
+    <row r="271" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <f t="shared" si="20"/>
+        <v>24781.177543046499</v>
+      </c>
+    </row>
+    <row r="272" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <f t="shared" si="20"/>
+        <v>24608.915137086893</v>
+      </c>
+    </row>
+    <row r="273" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <f t="shared" si="20"/>
+        <v>24437.850185786392</v>
+      </c>
+    </row>
+    <row r="274" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <f t="shared" si="20"/>
+        <v>24267.974365229788</v>
+      </c>
+    </row>
+    <row r="275" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <f t="shared" si="20"/>
+        <v>24099.279409364241</v>
+      </c>
+    </row>
+    <row r="276" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <f t="shared" si="20"/>
+        <v>23931.757109597063</v>
+      </c>
+    </row>
+    <row r="277" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <f t="shared" si="20"/>
+        <v>23765.399314396291</v>
+      </c>
+    </row>
+    <row r="278" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <f t="shared" si="20"/>
+        <v>23600.197928894035</v>
+      </c>
+    </row>
+    <row r="279" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <f t="shared" si="20"/>
+        <v>23436.14491449259</v>
+      </c>
+    </row>
+    <row r="280" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <f t="shared" si="20"/>
+        <v>23273.232288473278</v>
+      </c>
+    </row>
+    <row r="281" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <f t="shared" si="20"/>
+        <v>23111.452123608025</v>
+      </c>
+    </row>
+    <row r="282" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <f t="shared" si="20"/>
+        <v>22950.796547773614</v>
+      </c>
+    </row>
+    <row r="283" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <f t="shared" si="20"/>
+        <v>22791.257743568636</v>
+      </c>
+    </row>
+    <row r="284" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <f t="shared" si="20"/>
+        <v>22632.827947933107</v>
+      </c>
+    </row>
+    <row r="285" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <f t="shared" si="20"/>
+        <v>22475.499451770713</v>
+      </c>
+    </row>
+    <row r="286" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <f t="shared" si="20"/>
+        <v>22319.2645995737</v>
+      </c>
+    </row>
+    <row r="287" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <f t="shared" si="20"/>
+        <v>22164.115789050349</v>
+      </c>
+    </row>
+    <row r="288" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <f t="shared" si="20"/>
+        <v>22010.045470755067</v>
+      </c>
+    </row>
+    <row r="289" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <f t="shared" si="20"/>
+        <v>21857.046147721023</v>
+      </c>
+    </row>
+    <row r="290" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <f t="shared" ref="N290:N353" si="21">N289/1.007</f>
+        <v>21705.110375095359</v>
+      </c>
+    </row>
+    <row r="291" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N291">
+        <f t="shared" si="21"/>
+        <v>21554.230759776921</v>
+      </c>
+    </row>
+    <row r="292" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <f t="shared" si="21"/>
+        <v>21404.399960056529</v>
+      </c>
+    </row>
+    <row r="293" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N293">
+        <f t="shared" si="21"/>
+        <v>21255.610685259715</v>
+      </c>
+    </row>
+    <row r="294" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <f t="shared" si="21"/>
+        <v>21107.855695391972</v>
+      </c>
+    </row>
+    <row r="295" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <f t="shared" si="21"/>
+        <v>20961.127800786468</v>
+      </c>
+    </row>
+    <row r="296" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <f t="shared" si="21"/>
+        <v>20815.419861754192</v>
+      </c>
+    </row>
+    <row r="297" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <f t="shared" si="21"/>
+        <v>20670.724788236537</v>
+      </c>
+    </row>
+    <row r="298" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <f t="shared" si="21"/>
+        <v>20527.035539460318</v>
+      </c>
+    </row>
+    <row r="299" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <f t="shared" si="21"/>
+        <v>20384.345123595154</v>
+      </c>
+    </row>
+    <row r="300" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <f t="shared" si="21"/>
+        <v>20242.646597413262</v>
+      </c>
+    </row>
+    <row r="301" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <f t="shared" si="21"/>
+        <v>20101.933065951602</v>
+      </c>
+    </row>
+    <row r="302" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <f t="shared" si="21"/>
+        <v>19962.197682176371</v>
+      </c>
+    </row>
+    <row r="303" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <f t="shared" si="21"/>
+        <v>19823.433646649824</v>
+      </c>
+    </row>
+    <row r="304" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <f t="shared" si="21"/>
+        <v>19685.63420719943</v>
+      </c>
+    </row>
+    <row r="305" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <f t="shared" si="21"/>
+        <v>19548.792658589307</v>
+      </c>
+    </row>
+    <row r="306" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <f t="shared" si="21"/>
+        <v>19412.902342193953</v>
+      </c>
+    </row>
+    <row r="307" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <f t="shared" si="21"/>
+        <v>19277.956645674236</v>
+      </c>
+    </row>
+    <row r="308" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <f t="shared" si="21"/>
+        <v>19143.949002655649</v>
+      </c>
+    </row>
+    <row r="309" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <f t="shared" si="21"/>
+        <v>19010.872892408788</v>
+      </c>
+    </row>
+    <row r="310" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <f t="shared" si="21"/>
+        <v>18878.721839532067</v>
+      </c>
+    </row>
+    <row r="311" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <f t="shared" si="21"/>
+        <v>18747.489413636613</v>
+      </c>
+    </row>
+    <row r="312" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <f t="shared" si="21"/>
+        <v>18617.169229033381</v>
+      </c>
+    </row>
+    <row r="313" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <f t="shared" si="21"/>
+        <v>18487.754944422428</v>
+      </c>
+    </row>
+    <row r="314" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <f t="shared" si="21"/>
+        <v>18359.240262584339</v>
+      </c>
+    </row>
+    <row r="315" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <f t="shared" si="21"/>
+        <v>18231.618930073822</v>
+      </c>
+    </row>
+    <row r="316" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <f t="shared" si="21"/>
+        <v>18104.884736915417</v>
+      </c>
+    </row>
+    <row r="317" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <f t="shared" si="21"/>
+        <v>17979.031516301311</v>
+      </c>
+    </row>
+    <row r="318" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <f t="shared" si="21"/>
+        <v>17854.053144291272</v>
+      </c>
+    </row>
+    <row r="319" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <f t="shared" si="21"/>
+        <v>17729.943539514672</v>
+      </c>
+    </row>
+    <row r="320" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <f t="shared" si="21"/>
+        <v>17606.69666287455</v>
+      </c>
+    </row>
+    <row r="321" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <f t="shared" si="21"/>
+        <v>17484.306517253775</v>
+      </c>
+    </row>
+    <row r="322" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <f t="shared" si="21"/>
+        <v>17362.767147223214</v>
+      </c>
+    </row>
+    <row r="323" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <f t="shared" si="21"/>
+        <v>17242.072638751953</v>
+      </c>
+    </row>
+    <row r="324" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <f t="shared" si="21"/>
+        <v>17122.217118919518</v>
+      </c>
+    </row>
+    <row r="325" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <f t="shared" si="21"/>
+        <v>17003.194755630109</v>
+      </c>
+    </row>
+    <row r="326" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <f t="shared" si="21"/>
+        <v>16884.999757328809</v>
+      </c>
+    </row>
+    <row r="327" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <f t="shared" si="21"/>
+        <v>16767.626372719773</v>
+      </c>
+    </row>
+    <row r="328" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <f t="shared" si="21"/>
+        <v>16651.068890486371</v>
+      </c>
+    </row>
+    <row r="329" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <f t="shared" si="21"/>
+        <v>16535.32163901328</v>
+      </c>
+    </row>
+    <row r="330" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <f t="shared" si="21"/>
+        <v>16420.378986110507</v>
+      </c>
+    </row>
+    <row r="331" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <f t="shared" si="21"/>
+        <v>16306.235338739334</v>
+      </c>
+    </row>
+    <row r="332" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <f t="shared" si="21"/>
+        <v>16192.885142740155</v>
+      </c>
+    </row>
+    <row r="333" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <f t="shared" si="21"/>
+        <v>16080.322882562221</v>
+      </c>
+    </row>
+    <row r="334" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <f t="shared" si="21"/>
+        <v>15968.543080995256</v>
+      </c>
+    </row>
+    <row r="335" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <f t="shared" si="21"/>
+        <v>15857.540298902937</v>
+      </c>
+    </row>
+    <row r="336" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <f t="shared" si="21"/>
+        <v>15747.309134958232</v>
+      </c>
+    </row>
+    <row r="337" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <f t="shared" si="21"/>
+        <v>15637.84422538057</v>
+      </c>
+    </row>
+    <row r="338" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N338">
+        <f t="shared" si="21"/>
+        <v>15529.140243674847</v>
+      </c>
+    </row>
+    <row r="339" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <f t="shared" si="21"/>
+        <v>15421.191900372243</v>
+      </c>
+    </row>
+    <row r="340" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N340">
+        <f t="shared" si="21"/>
+        <v>15313.993942772835</v>
+      </c>
+    </row>
+    <row r="341" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <f t="shared" si="21"/>
+        <v>15207.541154690007</v>
+      </c>
+    </row>
+    <row r="342" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N342">
+        <f t="shared" si="21"/>
+        <v>15101.828356196633</v>
+      </c>
+    </row>
+    <row r="343" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <f t="shared" si="21"/>
+        <v>14996.850403373022</v>
+      </c>
+    </row>
+    <row r="344" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N344">
+        <f t="shared" si="21"/>
+        <v>14892.602188056628</v>
+      </c>
+    </row>
+    <row r="345" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <f t="shared" si="21"/>
+        <v>14789.078637593475</v>
+      </c>
+    </row>
+    <row r="346" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <f t="shared" si="21"/>
+        <v>14686.274714591336</v>
+      </c>
+    </row>
+    <row r="347" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <f t="shared" si="21"/>
+        <v>14584.185416674616</v>
+      </c>
+    </row>
+    <row r="348" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <f t="shared" si="21"/>
+        <v>14482.805776240932</v>
+      </c>
+    </row>
+    <row r="349" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <f t="shared" si="21"/>
+        <v>14382.130860219397</v>
+      </c>
+    </row>
+    <row r="350" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N350">
+        <f t="shared" si="21"/>
+        <v>14282.155769830584</v>
+      </c>
+    </row>
+    <row r="351" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N351">
+        <f t="shared" si="21"/>
+        <v>14182.875640348149</v>
+      </c>
+    </row>
+    <row r="352" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <f t="shared" si="21"/>
+        <v>14084.285640862116</v>
+      </c>
+    </row>
+    <row r="353" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <f t="shared" si="21"/>
+        <v>13986.38097404381</v>
+      </c>
+    </row>
+    <row r="354" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <f t="shared" ref="N354:N410" si="22">N353/1.007</f>
+        <v>13889.156875912424</v>
+      </c>
+    </row>
+    <row r="355" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <f t="shared" si="22"/>
+        <v>13792.608615603203</v>
+      </c>
+    </row>
+    <row r="356" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <f t="shared" si="22"/>
+        <v>13696.731495137245</v>
+      </c>
+    </row>
+    <row r="357" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <f t="shared" si="22"/>
+        <v>13601.520849192895</v>
+      </c>
+    </row>
+    <row r="358" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <f t="shared" si="22"/>
+        <v>13506.972044878745</v>
+      </c>
+    </row>
+    <row r="359" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <f t="shared" si="22"/>
+        <v>13413.080481508188</v>
+      </c>
+    </row>
+    <row r="360" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <f t="shared" si="22"/>
+        <v>13319.841590375561</v>
+      </c>
+    </row>
+    <row r="361" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <f t="shared" si="22"/>
+        <v>13227.250834533826</v>
+      </c>
+    </row>
+    <row r="362" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <f t="shared" si="22"/>
+        <v>13135.303708573811</v>
+      </c>
+    </row>
+    <row r="363" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <f t="shared" si="22"/>
+        <v>13043.995738404978</v>
+      </c>
+    </row>
+    <row r="364" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <f t="shared" si="22"/>
+        <v>12953.322481037714</v>
+      </c>
+    </row>
+    <row r="365" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N365">
+        <f t="shared" si="22"/>
+        <v>12863.279524367146</v>
+      </c>
+    </row>
+    <row r="366" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <f t="shared" si="22"/>
+        <v>12773.862486958438</v>
+      </c>
+    </row>
+    <row r="367" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N367">
+        <f t="shared" si="22"/>
+        <v>12685.067017833604</v>
+      </c>
+    </row>
+    <row r="368" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <f t="shared" si="22"/>
+        <v>12596.888796259787</v>
+      </c>
+    </row>
+    <row r="369" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N369">
+        <f t="shared" si="22"/>
+        <v>12509.323531539016</v>
+      </c>
+    </row>
+    <row r="370" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <f t="shared" si="22"/>
+        <v>12422.36696279942</v>
+      </c>
+    </row>
+    <row r="371" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N371">
+        <f t="shared" si="22"/>
+        <v>12336.014858787907</v>
+      </c>
+    </row>
+    <row r="372" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <f t="shared" si="22"/>
+        <v>12250.263017664258</v>
+      </c>
+    </row>
+    <row r="373" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N373">
+        <f t="shared" si="22"/>
+        <v>12165.107266796682</v>
+      </c>
+    </row>
+    <row r="374" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N374">
+        <f t="shared" si="22"/>
+        <v>12080.543462558771</v>
+      </c>
+    </row>
+    <row r="375" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N375">
+        <f t="shared" si="22"/>
+        <v>11996.567490127878</v>
+      </c>
+    </row>
+    <row r="376" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N376">
+        <f t="shared" si="22"/>
+        <v>11913.175263284886</v>
+      </c>
+    </row>
+    <row r="377" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N377">
+        <f t="shared" si="22"/>
+        <v>11830.36272421538</v>
+      </c>
+    </row>
+    <row r="378" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N378">
+        <f t="shared" si="22"/>
+        <v>11748.125843312195</v>
+      </c>
+    </row>
+    <row r="379" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N379">
+        <f t="shared" si="22"/>
+        <v>11666.460618979341</v>
+      </c>
+    </row>
+    <row r="380" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N380">
+        <f t="shared" si="22"/>
+        <v>11585.363077437281</v>
+      </c>
+    </row>
+    <row r="381" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N381">
+        <f t="shared" si="22"/>
+        <v>11504.829272529576</v>
+      </c>
+    </row>
+    <row r="382" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N382">
+        <f t="shared" si="22"/>
+        <v>11424.855285530861</v>
+      </c>
+    </row>
+    <row r="383" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N383">
+        <f t="shared" si="22"/>
+        <v>11345.437224956169</v>
+      </c>
+    </row>
+    <row r="384" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N384">
+        <f t="shared" si="22"/>
+        <v>11266.571226371569</v>
+      </c>
+    </row>
+    <row r="385" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N385">
+        <f t="shared" si="22"/>
+        <v>11188.253452206127</v>
+      </c>
+    </row>
+    <row r="386" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N386">
+        <f t="shared" si="22"/>
+        <v>11110.480091565172</v>
+      </c>
+    </row>
+    <row r="387" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N387">
+        <f t="shared" si="22"/>
+        <v>11033.247360044859</v>
+      </c>
+    </row>
+    <row r="388" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N388">
+        <f t="shared" si="22"/>
+        <v>10956.551499548024</v>
+      </c>
+    </row>
+    <row r="389" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N389">
+        <f t="shared" si="22"/>
+        <v>10880.388778101316</v>
+      </c>
+    </row>
+    <row r="390" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N390">
+        <f t="shared" si="22"/>
+        <v>10804.755489673602</v>
+      </c>
+    </row>
+    <row r="391" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N391">
+        <f t="shared" si="22"/>
+        <v>10729.647953995634</v>
+      </c>
+    </row>
+    <row r="392" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N392">
+        <f t="shared" si="22"/>
+        <v>10655.062516380969</v>
+      </c>
+    </row>
+    <row r="393" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N393">
+        <f t="shared" si="22"/>
+        <v>10580.995547548133</v>
+      </c>
+    </row>
+    <row r="394" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N394">
+        <f t="shared" si="22"/>
+        <v>10507.443443444026</v>
+      </c>
+    </row>
+    <row r="395" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N395">
+        <f t="shared" si="22"/>
+        <v>10434.402625068547</v>
+      </c>
+    </row>
+    <row r="396" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N396">
+        <f t="shared" si="22"/>
+        <v>10361.869538300445</v>
+      </c>
+    </row>
+    <row r="397" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N397">
+        <f t="shared" si="22"/>
+        <v>10289.840653724375</v>
+      </c>
+    </row>
+    <row r="398" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N398">
+        <f t="shared" si="22"/>
+        <v>10218.312466459163</v>
+      </c>
+    </row>
+    <row r="399" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N399">
+        <f t="shared" si="22"/>
+        <v>10147.281495987254</v>
+      </c>
+    </row>
+    <row r="400" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N400">
+        <f t="shared" si="22"/>
+        <v>10076.744285985358</v>
+      </c>
+    </row>
+    <row r="401" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N401">
+        <f t="shared" si="22"/>
+        <v>10006.697404156266</v>
+      </c>
+    </row>
+    <row r="402" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N402">
+        <f t="shared" si="22"/>
+        <v>9937.137442061834</v>
+      </c>
+    </row>
+    <row r="403" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N403">
+        <f t="shared" si="22"/>
+        <v>9868.0610149571348</v>
+      </c>
+    </row>
+    <row r="404" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N404">
+        <f t="shared" si="22"/>
+        <v>9799.4647616257553</v>
+      </c>
+    </row>
+    <row r="405" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N405">
+        <f t="shared" si="22"/>
+        <v>9731.3453442162427</v>
+      </c>
+    </row>
+    <row r="406" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N406">
+        <f t="shared" si="22"/>
+        <v>9663.6994480796857</v>
+      </c>
+    </row>
+    <row r="407" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N407">
+        <f t="shared" si="22"/>
+        <v>9596.5237816084282</v>
+      </c>
+    </row>
+    <row r="408" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N408">
+        <f t="shared" si="22"/>
+        <v>9529.8150760758981</v>
+      </c>
+    </row>
+    <row r="409" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N409">
+        <f t="shared" si="22"/>
+        <v>9463.5700854775569</v>
+      </c>
+    </row>
+    <row r="410" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N410">
+        <f t="shared" si="22"/>
+        <v>9397.7855863729474</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD67278-F0B5-4B2E-AE9F-CA3956EC3BFB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A73E4-A3FC-4539-B977-0BB09AA991AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>if_finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>expect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,18 +203,6 @@
   </si>
   <si>
     <t>卖掉了50etf，17.005买入迪安诊断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6242,10 +6234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N410"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6254,7 +6246,7 @@
     <col min="9" max="9" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6280,13 +6272,10 @@
         <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6306,7 +6295,7 @@
         <v>0.61258760563380288</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6332,7 +6321,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6358,7 +6347,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6387,7 +6376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6416,7 +6405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6445,7 +6434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6471,7 +6460,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6497,7 +6486,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6526,7 +6515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6555,7 +6544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6579,7 +6568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6605,7 +6594,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6631,7 +6620,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6664,8 +6653,12 @@
         <f>56000/1.006</f>
         <v>55666.00397614314</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <f>F15*B15</f>
+        <v>53391.334025406046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6721,6 +6714,10 @@
         <f>J16*1.006</f>
         <v>56336</v>
       </c>
+      <c r="K17">
+        <f t="shared" ref="K17:L34" si="4">F17*B17</f>
+        <v>54249.012415190162</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -6751,6 +6748,10 @@
         <f>J17*1.006</f>
         <v>56674.016000000003</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>54683.004514511682</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
@@ -6787,6 +6788,10 @@
         <f>J18*1.006</f>
         <v>57014.060096000001</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>55120.468550627775</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -6824,6 +6829,10 @@
         <f>J20*1.006</f>
         <v>57356.144456576003</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>55561.432299032793</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -6855,8 +6864,12 @@
         <v>43411</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J24" si="4">J21*1.006</f>
+        <f t="shared" ref="J22:J24" si="5">J21*1.006</f>
         <v>57700.281323315459</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>56005.923757425058</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -6891,8 +6904,12 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58046.483011255354</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>56453.971147484452</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -6924,8 +6941,12 @@
         <v>43413</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58394.761909322886</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>56905.602916664327</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -6953,7 +6974,7 @@
         <v>84000</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="5">(F26+D26)/F26</f>
+        <f t="shared" ref="G26" si="6">(F26+D26)/F26</f>
         <v>0.70958642857142862</v>
       </c>
       <c r="H26" s="1">
@@ -6966,6 +6987,10 @@
         <f>J24*1.006</f>
         <v>58745.130480778826</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>57360.84773999764</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -7002,6 +7027,10 @@
         <f>J26*1.006</f>
         <v>59097.601263663499</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>57819.73452191762</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -7035,8 +7064,12 @@
         <v>34</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J30" si="6">J27*1.006</f>
+        <f t="shared" ref="J28:J30" si="7">J27*1.006</f>
         <v>59452.186871245482</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>58282.292398092963</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -7071,8 +7104,12 @@
         <v>34</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59808.899992472958</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>58748.550737277707</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -7107,16 +7144,15 @@
         <v>35</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60167.753392427796</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>59218.539143175927</v>
       </c>
       <c r="L30">
         <v>55120.468550627775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K31">
-        <v>58038.66</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -7155,8 +7191,8 @@
         <v>60528.759912782363</v>
       </c>
       <c r="K32">
-        <f>K31*1.007</f>
-        <v>58444.930619999999</v>
+        <f>F32*B32</f>
+        <v>59692.287456321326</v>
       </c>
       <c r="L32">
         <v>55561.432299032793</v>
@@ -7171,7 +7207,7 @@
         <v>0.7163074494758559</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <f>E33-F33</f>
@@ -7191,15 +7227,15 @@
         <v>43424</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <f>J32*1.006</f>
         <v>60891.932472259061</v>
       </c>
       <c r="K33">
-        <f>K32*1.007</f>
-        <v>58854.045134339991</v>
+        <f>F33*B33</f>
+        <v>60169.825755971899</v>
       </c>
       <c r="L33">
         <v>56005.923757425058</v>
@@ -7214,7 +7250,7 @@
         <v>0.72203790907166276</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <f>E34-F34</f>
@@ -7234,15 +7270,15 @@
         <v>43425</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J36" si="7">J33*1.006</f>
+        <f t="shared" ref="J34:J36" si="8">J33*1.006</f>
         <v>61257.284067092616</v>
       </c>
       <c r="K34">
-        <f>K33*1.007</f>
-        <v>59266.023450280365</v>
+        <f t="shared" si="4"/>
+        <v>60651.184362019674</v>
       </c>
       <c r="L34">
         <v>56453.971147484452</v>
@@ -7256,9 +7292,6 @@
         <f t="shared" si="1"/>
         <v>0.72781421234423604</v>
       </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
       <c r="D35">
         <f>E35-F35</f>
         <v>-24061.86</v>
@@ -7277,12 +7310,12 @@
         <v>43426</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61624.827771495169</v>
       </c>
       <c r="K35">
-        <f>K34*1.007</f>
-        <v>59680.885614432322</v>
+        <f>F35*B35</f>
+        <v>61136.393836915828</v>
       </c>
       <c r="L35">
         <v>56905.602916664327</v>
@@ -7303,12 +7336,12 @@
         <v>43427</v>
       </c>
       <c r="J36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61994.576738124139</v>
       </c>
       <c r="K36">
-        <f>K35*1.007</f>
-        <v>60098.651813733341</v>
+        <f>F36*B36</f>
+        <v>61625.484987611155</v>
       </c>
       <c r="L36">
         <v>57360.84773999764</v>
@@ -7333,8 +7366,8 @@
         <v>62366.544198552881</v>
       </c>
       <c r="K38">
-        <f>K36*1.007</f>
-        <v>60519.342376429471</v>
+        <f t="shared" ref="K38:L94" si="9">F38*B38</f>
+        <v>62118.488867512038</v>
       </c>
       <c r="L38">
         <v>57819.73452191762</v>
@@ -7359,8 +7392,8 @@
         <v>62740.743463744198</v>
       </c>
       <c r="K39">
-        <f>K38*1.007</f>
-        <v>60942.977773064471</v>
+        <f t="shared" si="9"/>
+        <v>62615.436778452138</v>
       </c>
       <c r="L39">
         <v>58282.292398092963</v>
@@ -7381,12 +7414,12 @@
         <v>43432</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J42" si="8">J39*1.006</f>
+        <f t="shared" ref="J40:J42" si="10">J39*1.006</f>
         <v>63117.187924526661</v>
       </c>
       <c r="K40">
-        <f>K39*1.007</f>
-        <v>61369.578617475912</v>
+        <f t="shared" si="9"/>
+        <v>63116.360272679762</v>
       </c>
       <c r="L40">
         <v>58748.550737277707</v>
@@ -7407,12 +7440,12 @@
         <v>43433</v>
       </c>
       <c r="J41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63495.891052073821</v>
       </c>
       <c r="K41">
-        <f>K40*1.007</f>
-        <v>61799.165667798239</v>
+        <f t="shared" si="9"/>
+        <v>63621.291154861196</v>
       </c>
       <c r="L41">
         <v>59218.539143175927</v>
@@ -7433,12 +7466,12 @@
         <v>43434</v>
       </c>
       <c r="J42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63876.866398386264</v>
       </c>
       <c r="K42">
-        <f>K41*1.007</f>
-        <v>62231.759827472823</v>
+        <f t="shared" si="9"/>
+        <v>64130.261484100083</v>
       </c>
       <c r="L42">
         <v>59692.287456321326</v>
@@ -7463,8 +7496,8 @@
         <v>64260.127596776583</v>
       </c>
       <c r="K44">
-        <f>K42*1.007</f>
-        <v>62667.382146265125</v>
+        <f t="shared" si="9"/>
+        <v>64643.303575972888</v>
       </c>
       <c r="L44">
         <v>60169.825755971899</v>
@@ -7489,8 +7522,8 @@
         <v>64645.688362357243</v>
       </c>
       <c r="K45">
-        <f>K44*1.007</f>
-        <v>63106.053821288973</v>
+        <f t="shared" si="9"/>
+        <v>65160.450004580671</v>
       </c>
       <c r="L45">
         <v>60651.184362019674</v>
@@ -7511,12 +7544,12 @@
         <v>43439</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:J48" si="9">J45*1.006</f>
+        <f t="shared" ref="J46:J48" si="11">J45*1.006</f>
         <v>65033.56249253139</v>
       </c>
       <c r="K46">
-        <f>K45*1.007</f>
-        <v>63547.796198037991</v>
+        <f t="shared" si="9"/>
+        <v>65681.733604617315</v>
       </c>
       <c r="L46">
         <v>61136.393836915828</v>
@@ -7537,12 +7570,12 @@
         <v>43440</v>
       </c>
       <c r="J47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65423.763867486581</v>
       </c>
       <c r="K47">
-        <f>K46*1.007</f>
-        <v>63992.63077142425</v>
+        <f t="shared" si="9"/>
+        <v>66207.187473454251</v>
       </c>
       <c r="L47">
         <v>61625.484987611155</v>
@@ -7563,12 +7596,12 @@
         <v>43441</v>
       </c>
       <c r="J48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65816.306450691496</v>
       </c>
       <c r="K48">
-        <f>K47*1.007</f>
-        <v>64440.579186824216</v>
+        <f t="shared" si="9"/>
+        <v>66736.844973241881</v>
       </c>
       <c r="L48">
         <v>62118.488867512038</v>
@@ -7593,8 +7626,8 @@
         <v>66211.204289395639</v>
       </c>
       <c r="K50">
-        <f>K48*1.007</f>
-        <v>64891.663241131981</v>
+        <f t="shared" si="9"/>
+        <v>67270.739733027818</v>
       </c>
       <c r="L50">
         <v>62615.436778452138</v>
@@ -7619,8 +7652,8 @@
         <v>66608.471515132012</v>
       </c>
       <c r="K51">
-        <f>K50*1.007</f>
-        <v>65345.904883819894</v>
+        <f t="shared" si="9"/>
+        <v>67808.905650892048</v>
       </c>
       <c r="L51">
         <v>63116.360272679762</v>
@@ -7641,12 +7674,12 @@
         <v>43446</v>
       </c>
       <c r="J52">
-        <f t="shared" ref="J52:J54" si="10">J51*1.006</f>
+        <f t="shared" ref="J52:J54" si="12">J51*1.006</f>
         <v>67008.122344222807</v>
       </c>
       <c r="K52">
-        <f>K51*1.007</f>
-        <v>65803.326218006623</v>
+        <f t="shared" si="9"/>
+        <v>68351.376896099187</v>
       </c>
       <c r="L52">
         <v>63621.291154861196</v>
@@ -7667,12 +7700,12 @@
         <v>43447</v>
       </c>
       <c r="J53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>67410.171078288142</v>
       </c>
       <c r="K53">
-        <f>K52*1.007</f>
-        <v>66263.949501532668</v>
+        <f t="shared" si="9"/>
+        <v>68898.187911267974</v>
       </c>
       <c r="L53">
         <v>64130.261484100083</v>
@@ -7693,12 +7726,12 @@
         <v>43448</v>
       </c>
       <c r="J54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>67814.632104757868</v>
       </c>
       <c r="K54">
-        <f>K53*1.007</f>
-        <v>66727.797148043392</v>
+        <f t="shared" si="9"/>
+        <v>69449.373414558126</v>
       </c>
       <c r="L54">
         <v>64643.303575972888</v>
@@ -7723,8 +7756,8 @@
         <v>68221.519897386417</v>
       </c>
       <c r="K56">
-        <f>K54*1.007</f>
-        <v>67194.891728079689</v>
+        <f t="shared" si="9"/>
+        <v>70004.96840187459</v>
       </c>
       <c r="L56">
         <v>65160.450004580671</v>
@@ -7749,8 +7782,8 @@
         <v>68630.849016770735</v>
       </c>
       <c r="K57">
-        <f>K56*1.007</f>
-        <v>67665.255970176237</v>
+        <f t="shared" si="9"/>
+        <v>70565.008149089583</v>
       </c>
       <c r="L57">
         <v>65681.733604617315</v>
@@ -7771,12 +7804,12 @@
         <v>43453</v>
       </c>
       <c r="J58">
-        <f t="shared" ref="J58:J60" si="11">J57*1.006</f>
+        <f t="shared" ref="J58:J60" si="13">J57*1.006</f>
         <v>69042.634110871353</v>
       </c>
       <c r="K58">
-        <f>K57*1.007</f>
-        <v>68138.912761967469</v>
+        <f t="shared" si="9"/>
+        <v>71129.528214282298</v>
       </c>
       <c r="L58">
         <v>66207.187473454251</v>
@@ -7797,12 +7830,12 @@
         <v>43454</v>
       </c>
       <c r="J59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>69456.88991553658</v>
       </c>
       <c r="K59">
-        <f>K58*1.007</f>
-        <v>68615.885151301234</v>
+        <f t="shared" si="9"/>
+        <v>71698.564439996553</v>
       </c>
       <c r="L59">
         <v>66736.844973241881</v>
@@ -7823,12 +7856,12 @@
         <v>43455</v>
       </c>
       <c r="J60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>69873.631255029803</v>
       </c>
       <c r="K60">
-        <f>K59*1.007</f>
-        <v>69096.196347360339</v>
+        <f t="shared" si="9"/>
+        <v>72272.152955516518</v>
       </c>
       <c r="L60">
         <v>67270.739733027818</v>
@@ -7853,8 +7886,8 @@
         <v>70292.873042559979</v>
       </c>
       <c r="K62">
-        <f>K60*1.007</f>
-        <v>69579.869721791852</v>
+        <f t="shared" si="9"/>
+        <v>72850.33017916065</v>
       </c>
       <c r="L62">
         <v>67808.905650892048</v>
@@ -7879,8 +7912,8 @@
         <v>70714.630280815341</v>
       </c>
       <c r="K63">
-        <f>K62*1.007</f>
-        <v>70066.928809844394</v>
+        <f t="shared" si="9"/>
+        <v>73433.13282059395</v>
       </c>
       <c r="L63">
         <v>68351.376896099187</v>
@@ -7901,12 +7934,12 @@
         <v>43460</v>
       </c>
       <c r="J64">
-        <f t="shared" ref="J64:J66" si="12">J63*1.006</f>
+        <f t="shared" ref="J64:J66" si="14">J63*1.006</f>
         <v>71138.918062500234</v>
       </c>
       <c r="K64">
-        <f>K63*1.007</f>
-        <v>70557.397311513298</v>
+        <f t="shared" si="9"/>
+        <v>74020.597883158698</v>
       </c>
       <c r="L64">
         <v>68898.187911267974</v>
@@ -7927,12 +7960,12 @@
         <v>43461</v>
       </c>
       <c r="J65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>71565.751570875233</v>
       </c>
       <c r="K65">
-        <f>K64*1.007</f>
-        <v>71051.29909269388</v>
+        <f t="shared" si="9"/>
+        <v>74612.762666223964</v>
       </c>
       <c r="L65">
         <v>69449.373414558126</v>
@@ -7953,12 +7986,12 @@
         <v>43462</v>
       </c>
       <c r="J66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>71995.146080300488</v>
       </c>
       <c r="K66">
-        <f>K65*1.007</f>
-        <v>71548.658186342727</v>
+        <f t="shared" si="9"/>
+        <v>75209.664767553753</v>
       </c>
       <c r="L66">
         <v>70004.96840187459</v>
@@ -7983,8 +8016,8 @@
         <v>72427.116956782294</v>
       </c>
       <c r="K68">
-        <f>K66*1.007</f>
-        <v>72049.498793647115</v>
+        <f t="shared" si="9"/>
+        <v>75811.342085694181</v>
       </c>
       <c r="L68">
         <v>70565.008149089583</v>
@@ -8009,8 +8042,8 @@
         <v>72861.679658522989</v>
       </c>
       <c r="K69">
-        <f>K68*1.007</f>
-        <v>72553.845285202638</v>
+        <f t="shared" si="9"/>
+        <v>76417.832822379743</v>
       </c>
       <c r="L69">
         <v>71129.528214282298</v>
@@ -8031,12 +8064,12 @@
         <v>43469</v>
       </c>
       <c r="J70">
-        <f t="shared" ref="J70:J88" si="13">J69*1.006</f>
+        <f t="shared" ref="J70:J88" si="15">J69*1.006</f>
         <v>73298.849736474134</v>
       </c>
       <c r="K70">
-        <f>K69*1.007</f>
-        <v>73061.722202199046</v>
+        <f t="shared" si="9"/>
+        <v>77029.175484958774</v>
       </c>
       <c r="L70">
         <v>71698.564439996553</v>
@@ -8064,8 +8097,8 @@
         <v>73738.642834892977</v>
       </c>
       <c r="K72">
-        <f>K70*1.007</f>
-        <v>73573.154257614427</v>
+        <f t="shared" si="9"/>
+        <v>77645.408888838443</v>
       </c>
       <c r="L72">
         <v>72272.152955516518</v>
@@ -8086,12 +8119,12 @@
         <v>43473</v>
       </c>
       <c r="J73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74181.074691902337</v>
       </c>
       <c r="K73">
-        <f>K72*1.007</f>
-        <v>74088.166337417715</v>
+        <f t="shared" si="9"/>
+        <v>78266.572159949152</v>
       </c>
       <c r="L73">
         <v>72850.33017916065</v>
@@ -8112,12 +8145,12 @@
         <v>43474</v>
       </c>
       <c r="J74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74626.161140053751</v>
       </c>
       <c r="K74">
-        <f>K73*1.007</f>
-        <v>74606.783501779631</v>
+        <f t="shared" si="9"/>
+        <v>78892.704737228749</v>
       </c>
       <c r="L74">
         <v>73433.13282059395</v>
@@ -8138,12 +8171,12 @@
         <v>43475</v>
       </c>
       <c r="J75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>75073.918106894067</v>
       </c>
       <c r="K75">
-        <f>K74*1.007</f>
-        <v>75129.030986292084</v>
+        <f t="shared" si="9"/>
+        <v>79523.846375126581</v>
       </c>
       <c r="L75">
         <v>74020.597883158698</v>
@@ -8164,12 +8197,12 @@
         <v>43476</v>
       </c>
       <c r="J76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>75524.361615535425</v>
       </c>
       <c r="K76">
-        <f>K75*1.007</f>
-        <v>75654.934203196128</v>
+        <f t="shared" si="9"/>
+        <v>80160.037146127594</v>
       </c>
       <c r="L76">
         <v>74612.762666223964</v>
@@ -8197,8 +8230,8 @@
         <v>75977.507785228634</v>
       </c>
       <c r="K78">
-        <f>K76*1.007</f>
-        <v>76184.518742618486</v>
+        <f t="shared" si="9"/>
+        <v>80801.317443296604</v>
       </c>
       <c r="L78">
         <v>75209.664767553753</v>
@@ -8209,7 +8242,7 @@
         <v>66</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:B87" si="14">B78*1.008</f>
+        <f t="shared" ref="B79:B87" si="16">B78*1.008</f>
         <v>0.96961580931955937</v>
       </c>
       <c r="F79">
@@ -8219,12 +8252,12 @@
         <v>43480</v>
       </c>
       <c r="J79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76433.372831940011</v>
       </c>
       <c r="K79">
-        <f>K78*1.007</f>
-        <v>76717.810373816814</v>
+        <f t="shared" si="9"/>
+        <v>81447.727982842989</v>
       </c>
       <c r="L79">
         <v>75811.342085694181</v>
@@ -8235,7 +8268,7 @@
         <v>67</v>
       </c>
       <c r="B80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.97737273579411588</v>
       </c>
       <c r="F80">
@@ -8245,23 +8278,23 @@
         <v>43481</v>
       </c>
       <c r="J80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76891.973068931649</v>
       </c>
       <c r="K80">
-        <f>K79*1.007</f>
-        <v>77254.835046433524</v>
+        <f t="shared" si="9"/>
+        <v>82099.309806705729</v>
       </c>
       <c r="L80">
         <v>76417.832822379743</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>68</v>
       </c>
       <c r="B81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.98519171768046876</v>
       </c>
       <c r="F81">
@@ -8271,23 +8304,23 @@
         <v>43482</v>
       </c>
       <c r="J81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>77353.324907345246</v>
       </c>
       <c r="K81">
-        <f>K80*1.007</f>
-        <v>77795.618891758553</v>
+        <f t="shared" si="9"/>
+        <v>82756.104285159381</v>
       </c>
       <c r="L81">
         <v>77029.175484958774</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>69</v>
       </c>
       <c r="B82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.9930732514219125</v>
       </c>
       <c r="F82">
@@ -8297,21 +8330,21 @@
         <v>43483</v>
       </c>
       <c r="J82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>77817.444856789312</v>
       </c>
       <c r="K82">
-        <f>K81*1.007</f>
-        <v>78340.188224000856</v>
+        <f t="shared" si="9"/>
+        <v>83418.153119440656</v>
       </c>
       <c r="L82">
         <v>77645.408888838443</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>70</v>
       </c>
@@ -8330,19 +8363,19 @@
         <v>78284.349525930054</v>
       </c>
       <c r="K84">
-        <f>K82*1.007</f>
-        <v>78888.569541568853</v>
+        <f t="shared" si="9"/>
+        <v>84085.498344396183</v>
       </c>
       <c r="L84">
         <v>78266.572159949152</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>71</v>
       </c>
       <c r="B85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0090259801327541</v>
       </c>
       <c r="F85">
@@ -8352,18 +8385,18 @@
         <v>43487</v>
       </c>
       <c r="J85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>78754.055623085631</v>
       </c>
       <c r="K85">
-        <f>K84*1.007</f>
-        <v>79440.789528359834</v>
+        <f t="shared" si="9"/>
+        <v>84758.182331151344</v>
       </c>
       <c r="L85">
         <v>78892.704737228749</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>72</v>
       </c>
@@ -8378,23 +8411,23 @@
         <v>43488</v>
       </c>
       <c r="J86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>79226.579956824149</v>
       </c>
       <c r="K86">
-        <f>K85*1.007</f>
-        <v>79996.87505505835</v>
+        <f t="shared" si="9"/>
+        <v>85436.24778980056</v>
       </c>
       <c r="L86">
         <v>79523.846375126581</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>73</v>
       </c>
       <c r="B87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0252349734776067</v>
       </c>
       <c r="F87">
@@ -8404,18 +8437,18 @@
         <v>43489</v>
       </c>
       <c r="J87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>79701.939436565095</v>
       </c>
       <c r="K87">
-        <f>K86*1.007</f>
-        <v>80556.853180443752</v>
+        <f t="shared" si="9"/>
+        <v>86119.73777211897</v>
       </c>
       <c r="L87">
         <v>80160.037146127594</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>74</v>
       </c>
@@ -8430,18 +8463,18 @@
         <v>43490</v>
       </c>
       <c r="J88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>80180.15107318449</v>
       </c>
       <c r="K88">
-        <f>K87*1.007</f>
-        <v>81120.751152706856</v>
+        <f t="shared" si="9"/>
+        <v>86808.69567429593</v>
       </c>
       <c r="L88">
         <v>80801.317443296604</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>76</v>
       </c>
@@ -8460,14 +8493,14 @@
         <v>80661.231979623597</v>
       </c>
       <c r="K90">
-        <f>K88*1.007</f>
-        <v>81688.59641077579</v>
+        <f t="shared" si="9"/>
+        <v>87503.165239690294</v>
       </c>
       <c r="L90">
         <v>81447.727982842989</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>77</v>
       </c>
@@ -8482,18 +8515,18 @@
         <v>43494</v>
       </c>
       <c r="J91">
-        <f t="shared" ref="J91:J98" si="15">J90*1.006</f>
+        <f>J90*1.006</f>
         <v>81145.199371501338</v>
       </c>
       <c r="K91">
-        <f t="shared" ref="K35:K94" si="16">K90*1.007</f>
-        <v>82260.416585651212</v>
+        <f t="shared" si="9"/>
+        <v>88203.190561607815</v>
       </c>
       <c r="L91">
         <v>82099.309806705729</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>78</v>
       </c>
@@ -8508,18 +8541,18 @@
         <v>43495</v>
       </c>
       <c r="J92">
-        <f t="shared" si="15"/>
+        <f>J91*1.006</f>
         <v>81632.070567730349</v>
       </c>
       <c r="K92">
-        <f t="shared" si="16"/>
-        <v>82836.239501750766</v>
+        <f t="shared" si="9"/>
+        <v>88908.816086100691</v>
       </c>
       <c r="L92">
         <v>82756.104285159381</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>79</v>
       </c>
@@ -8534,18 +8567,18 @@
         <v>43496</v>
       </c>
       <c r="J93">
-        <f t="shared" si="15"/>
+        <f>J92*1.006</f>
         <v>82121.862991136732</v>
       </c>
       <c r="K93">
-        <f t="shared" si="16"/>
-        <v>83416.093178263007</v>
+        <f t="shared" si="9"/>
+        <v>89620.086614789485</v>
       </c>
       <c r="L93">
         <v>83418.153119440656</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>80</v>
       </c>
@@ -8560,1922 +8593,39 @@
         <v>43497</v>
       </c>
       <c r="J94">
-        <f t="shared" si="15"/>
+        <f>J93*1.006</f>
         <v>82614.594169083546</v>
       </c>
       <c r="K94">
-        <f t="shared" si="16"/>
-        <v>84000.00583051084</v>
+        <f t="shared" si="9"/>
+        <v>90337.047307707806</v>
       </c>
       <c r="L94">
         <v>84085.498344396183</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J95">
-        <f t="shared" si="15"/>
+        <f>J94*1.006</f>
         <v>83110.281734098055</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J96">
-        <f t="shared" si="15"/>
+        <f>J95*1.006</f>
         <v>83608.94342450265</v>
       </c>
-      <c r="N96">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J97">
-        <f t="shared" si="15"/>
+        <f>J96*1.006</f>
         <v>84110.597085049667</v>
       </c>
-      <c r="N97">
-        <f>N96/1.007</f>
-        <v>83416.087388282031</v>
-      </c>
-    </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J98">
-        <f t="shared" si="15"/>
+        <f>J97*1.006</f>
         <v>84615.260667559967</v>
-      </c>
-      <c r="N98">
-        <f t="shared" ref="N98:N161" si="18">N97/1.007</f>
-        <v>82836.233752017914</v>
-      </c>
-    </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N99">
-        <f t="shared" si="18"/>
-        <v>82260.410875886722</v>
-      </c>
-    </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N100">
-        <f t="shared" si="18"/>
-        <v>81688.590740701824</v>
-      </c>
-    </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N101">
-        <f t="shared" si="18"/>
-        <v>81120.745522047495</v>
-      </c>
-    </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N102">
-        <f t="shared" si="18"/>
-        <v>80556.847588925026</v>
-      </c>
-    </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N103">
-        <f t="shared" si="18"/>
-        <v>79996.869502408183</v>
-      </c>
-    </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N104">
-        <f t="shared" si="18"/>
-        <v>79440.784014308039</v>
-      </c>
-    </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N105">
-        <f t="shared" si="18"/>
-        <v>78888.564065847124</v>
-      </c>
-    </row>
-    <row r="106" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N106">
-        <f t="shared" si="18"/>
-        <v>78340.182786342732</v>
-      </c>
-    </row>
-    <row r="107" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N107">
-        <f t="shared" si="18"/>
-        <v>77795.61349189945</v>
-      </c>
-    </row>
-    <row r="108" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N108">
-        <f t="shared" si="18"/>
-        <v>77254.829684110678</v>
-      </c>
-    </row>
-    <row r="109" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N109">
-        <f t="shared" si="18"/>
-        <v>76717.805048769296</v>
-      </c>
-    </row>
-    <row r="110" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N110">
-        <f t="shared" si="18"/>
-        <v>76184.513454587199</v>
-      </c>
-    </row>
-    <row r="111" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N111">
-        <f t="shared" si="18"/>
-        <v>75654.928951923735</v>
-      </c>
-    </row>
-    <row r="112" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N112">
-        <f t="shared" si="18"/>
-        <v>75129.025771523084</v>
-      </c>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N113">
-        <f t="shared" si="18"/>
-        <v>74606.778323260267</v>
-      </c>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N114">
-        <f t="shared" si="18"/>
-        <v>74088.161194896005</v>
-      </c>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N115">
-        <f t="shared" si="18"/>
-        <v>73573.149150840138</v>
-      </c>
-    </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N116">
-        <f t="shared" si="18"/>
-        <v>73061.717130923673</v>
-      </c>
-    </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N117">
-        <f t="shared" si="18"/>
-        <v>72553.840249179426</v>
-      </c>
-    </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N118">
-        <f t="shared" si="18"/>
-        <v>72049.493792631023</v>
-      </c>
-    </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N119">
-        <f t="shared" si="18"/>
-        <v>71548.653220090404</v>
-      </c>
-    </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N120">
-        <f t="shared" si="18"/>
-        <v>71051.294160963662</v>
-      </c>
-    </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N121">
-        <f t="shared" si="18"/>
-        <v>70557.392414065209</v>
-      </c>
-    </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N122">
-        <f t="shared" si="18"/>
-        <v>70066.923946440133</v>
-      </c>
-    </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N123">
-        <f t="shared" si="18"/>
-        <v>69579.864892194775</v>
-      </c>
-    </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N124">
-        <f t="shared" si="18"/>
-        <v>69096.191551335432</v>
-      </c>
-    </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N125">
-        <f t="shared" si="18"/>
-        <v>68615.880388615129</v>
-      </c>
-    </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N126">
-        <f t="shared" si="18"/>
-        <v>68138.908032388412</v>
-      </c>
-    </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N127">
-        <f t="shared" si="18"/>
-        <v>67665.251273474103</v>
-      </c>
-    </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N128">
-        <f t="shared" si="18"/>
-        <v>67194.887064025927</v>
-      </c>
-    </row>
-    <row r="129" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N129">
-        <f t="shared" si="18"/>
-        <v>66727.792516411049</v>
-      </c>
-    </row>
-    <row r="130" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N130">
-        <f t="shared" si="18"/>
-        <v>66263.94490209638</v>
-      </c>
-    </row>
-    <row r="131" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N131">
-        <f t="shared" si="18"/>
-        <v>65803.321650542595</v>
-      </c>
-    </row>
-    <row r="132" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N132">
-        <f t="shared" si="18"/>
-        <v>65345.900348105861</v>
-      </c>
-    </row>
-    <row r="133" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N133">
-        <f t="shared" si="18"/>
-        <v>64891.65873694724</v>
-      </c>
-    </row>
-    <row r="134" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N134">
-        <f t="shared" si="18"/>
-        <v>64440.574713949602</v>
-      </c>
-    </row>
-    <row r="135" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N135">
-        <f t="shared" si="18"/>
-        <v>63992.626329642117</v>
-      </c>
-    </row>
-    <row r="136" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N136">
-        <f t="shared" si="18"/>
-        <v>63547.791787132199</v>
-      </c>
-    </row>
-    <row r="137" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N137">
-        <f t="shared" si="18"/>
-        <v>63106.049441044888</v>
-      </c>
-    </row>
-    <row r="138" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N138">
-        <f t="shared" si="18"/>
-        <v>62667.377796469606</v>
-      </c>
-    </row>
-    <row r="139" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N139">
-        <f t="shared" si="18"/>
-        <v>62231.755507914211</v>
-      </c>
-    </row>
-    <row r="140" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N140">
-        <f t="shared" si="18"/>
-        <v>61799.161378266355</v>
-      </c>
-    </row>
-    <row r="141" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N141">
-        <f t="shared" si="18"/>
-        <v>61369.574357762031</v>
-      </c>
-    </row>
-    <row r="142" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N142">
-        <f t="shared" si="18"/>
-        <v>60942.973542961307</v>
-      </c>
-    </row>
-    <row r="143" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N143">
-        <f t="shared" si="18"/>
-        <v>60519.338175731194</v>
-      </c>
-    </row>
-    <row r="144" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N144">
-        <f t="shared" si="18"/>
-        <v>60098.647642235555</v>
-      </c>
-    </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N145">
-        <f t="shared" si="18"/>
-        <v>59680.881471932036</v>
-      </c>
-    </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N146">
-        <f t="shared" si="18"/>
-        <v>59266.019336576013</v>
-      </c>
-    </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N147">
-        <f t="shared" si="18"/>
-        <v>58854.041049231397</v>
-      </c>
-    </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N148">
-        <f t="shared" si="18"/>
-        <v>58444.926563288383</v>
-      </c>
-    </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N149">
-        <f t="shared" si="18"/>
-        <v>58038.655971487977</v>
-      </c>
-    </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N150">
-        <f t="shared" si="18"/>
-        <v>57635.209504953309</v>
-      </c>
-    </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N151">
-        <f t="shared" si="18"/>
-        <v>57234.567532227724</v>
-      </c>
-    </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N152">
-        <f t="shared" si="18"/>
-        <v>56836.710558319493</v>
-      </c>
-    </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N153">
-        <f t="shared" si="18"/>
-        <v>56441.619223753223</v>
-      </c>
-    </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N154">
-        <f t="shared" si="18"/>
-        <v>56049.274303627833</v>
-      </c>
-    </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N155">
-        <f t="shared" si="18"/>
-        <v>55659.656706681075</v>
-      </c>
-    </row>
-    <row r="156" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N156">
-        <f t="shared" si="18"/>
-        <v>55272.747474360556</v>
-      </c>
-    </row>
-    <row r="157" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N157">
-        <f t="shared" si="18"/>
-        <v>54888.527779901255</v>
-      </c>
-    </row>
-    <row r="158" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N158">
-        <f t="shared" si="18"/>
-        <v>54506.978927409393</v>
-      </c>
-    </row>
-    <row r="159" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N159">
-        <f t="shared" si="18"/>
-        <v>54128.082350952733</v>
-      </c>
-    </row>
-    <row r="160" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N160">
-        <f t="shared" si="18"/>
-        <v>53751.819613657135</v>
-      </c>
-    </row>
-    <row r="161" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N161">
-        <f t="shared" si="18"/>
-        <v>53378.172406809477</v>
-      </c>
-    </row>
-    <row r="162" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N162">
-        <f t="shared" ref="N162:N225" si="19">N161/1.007</f>
-        <v>53007.122548966712</v>
-      </c>
-    </row>
-    <row r="163" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N163">
-        <f t="shared" si="19"/>
-        <v>52638.651985071221</v>
-      </c>
-    </row>
-    <row r="164" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N164">
-        <f t="shared" si="19"/>
-        <v>52272.74278557222</v>
-      </c>
-    </row>
-    <row r="165" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N165">
-        <f t="shared" si="19"/>
-        <v>51909.37714555335</v>
-      </c>
-    </row>
-    <row r="166" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N166">
-        <f t="shared" si="19"/>
-        <v>51548.537383866293</v>
-      </c>
-    </row>
-    <row r="167" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N167">
-        <f t="shared" si="19"/>
-        <v>51190.205942270404</v>
-      </c>
-    </row>
-    <row r="168" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N168">
-        <f t="shared" si="19"/>
-        <v>50834.365384578363</v>
-      </c>
-    </row>
-    <row r="169" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N169">
-        <f t="shared" si="19"/>
-        <v>50480.998395807714</v>
-      </c>
-    </row>
-    <row r="170" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N170">
-        <f t="shared" si="19"/>
-        <v>50130.087781338349</v>
-      </c>
-    </row>
-    <row r="171" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N171">
-        <f t="shared" si="19"/>
-        <v>49781.616466075822</v>
-      </c>
-    </row>
-    <row r="172" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N172">
-        <f t="shared" si="19"/>
-        <v>49435.567493620481</v>
-      </c>
-    </row>
-    <row r="173" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N173">
-        <f t="shared" si="19"/>
-        <v>49091.924025442393</v>
-      </c>
-    </row>
-    <row r="174" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N174">
-        <f t="shared" si="19"/>
-        <v>48750.669340061962</v>
-      </c>
-    </row>
-    <row r="175" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N175">
-        <f t="shared" si="19"/>
-        <v>48411.786832236314</v>
-      </c>
-    </row>
-    <row r="176" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N176">
-        <f t="shared" si="19"/>
-        <v>48075.260012151259</v>
-      </c>
-    </row>
-    <row r="177" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N177">
-        <f t="shared" si="19"/>
-        <v>47741.072504618933</v>
-      </c>
-    </row>
-    <row r="178" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N178">
-        <f t="shared" si="19"/>
-        <v>47409.208048280969</v>
-      </c>
-    </row>
-    <row r="179" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N179">
-        <f t="shared" si="19"/>
-        <v>47079.650494817251</v>
-      </c>
-    </row>
-    <row r="180" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N180">
-        <f t="shared" si="19"/>
-        <v>46752.383808160135</v>
-      </c>
-    </row>
-    <row r="181" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N181">
-        <f t="shared" si="19"/>
-        <v>46427.392063714142</v>
-      </c>
-    </row>
-    <row r="182" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N182">
-        <f t="shared" si="19"/>
-        <v>46104.659447581078</v>
-      </c>
-    </row>
-    <row r="183" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N183">
-        <f t="shared" si="19"/>
-        <v>45784.170255790552</v>
-      </c>
-    </row>
-    <row r="184" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N184">
-        <f t="shared" si="19"/>
-        <v>45465.908893535809</v>
-      </c>
-    </row>
-    <row r="185" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N185">
-        <f t="shared" si="19"/>
-        <v>45149.859874414906</v>
-      </c>
-    </row>
-    <row r="186" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N186">
-        <f t="shared" si="19"/>
-        <v>44836.007819677172</v>
-      </c>
-    </row>
-    <row r="187" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N187">
-        <f t="shared" si="19"/>
-        <v>44524.337457474852</v>
-      </c>
-    </row>
-    <row r="188" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N188">
-        <f t="shared" si="19"/>
-        <v>44214.833622120015</v>
-      </c>
-    </row>
-    <row r="189" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N189">
-        <f t="shared" si="19"/>
-        <v>43907.481253346596</v>
-      </c>
-    </row>
-    <row r="190" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N190">
-        <f t="shared" si="19"/>
-        <v>43602.26539557756</v>
-      </c>
-    </row>
-    <row r="191" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N191">
-        <f t="shared" si="19"/>
-        <v>43299.171197197182</v>
-      </c>
-    </row>
-    <row r="192" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N192">
-        <f t="shared" si="19"/>
-        <v>42998.183909828389</v>
-      </c>
-    </row>
-    <row r="193" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N193">
-        <f t="shared" si="19"/>
-        <v>42699.28888761509</v>
-      </c>
-    </row>
-    <row r="194" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N194">
-        <f t="shared" si="19"/>
-        <v>42402.471586509528</v>
-      </c>
-    </row>
-    <row r="195" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N195">
-        <f t="shared" si="19"/>
-        <v>42107.717563564584</v>
-      </c>
-    </row>
-    <row r="196" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N196">
-        <f t="shared" si="19"/>
-        <v>41815.012476230972</v>
-      </c>
-    </row>
-    <row r="197" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N197">
-        <f t="shared" si="19"/>
-        <v>41524.342081659357</v>
-      </c>
-    </row>
-    <row r="198" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N198">
-        <f t="shared" si="19"/>
-        <v>41235.692236007308</v>
-      </c>
-    </row>
-    <row r="199" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N199">
-        <f t="shared" si="19"/>
-        <v>40949.048893751053</v>
-      </c>
-    </row>
-    <row r="200" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N200">
-        <f t="shared" si="19"/>
-        <v>40664.398107002045</v>
-      </c>
-    </row>
-    <row r="201" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N201">
-        <f t="shared" si="19"/>
-        <v>40381.726024828255</v>
-      </c>
-    </row>
-    <row r="202" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N202">
-        <f t="shared" si="19"/>
-        <v>40101.018892580199</v>
-      </c>
-    </row>
-    <row r="203" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N203">
-        <f t="shared" si="19"/>
-        <v>39822.263051221649</v>
-      </c>
-    </row>
-    <row r="204" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N204">
-        <f t="shared" si="19"/>
-        <v>39545.444936665001</v>
-      </c>
-    </row>
-    <row r="205" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N205">
-        <f t="shared" si="19"/>
-        <v>39270.551079111225</v>
-      </c>
-    </row>
-    <row r="206" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N206">
-        <f t="shared" si="19"/>
-        <v>38997.568102394471</v>
-      </c>
-    </row>
-    <row r="207" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N207">
-        <f t="shared" si="19"/>
-        <v>38726.482723331159</v>
-      </c>
-    </row>
-    <row r="208" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N208">
-        <f t="shared" si="19"/>
-        <v>38457.28175107365</v>
-      </c>
-    </row>
-    <row r="209" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N209">
-        <f t="shared" si="19"/>
-        <v>38189.952086468373</v>
-      </c>
-    </row>
-    <row r="210" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N210">
-        <f t="shared" si="19"/>
-        <v>37924.480721418448</v>
-      </c>
-    </row>
-    <row r="211" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N211">
-        <f t="shared" si="19"/>
-        <v>37660.854738250695</v>
-      </c>
-    </row>
-    <row r="212" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N212">
-        <f t="shared" si="19"/>
-        <v>37399.06130908709</v>
-      </c>
-    </row>
-    <row r="213" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N213">
-        <f t="shared" si="19"/>
-        <v>37139.087695220551</v>
-      </c>
-    </row>
-    <row r="214" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N214">
-        <f t="shared" si="19"/>
-        <v>36880.921246495091</v>
-      </c>
-    </row>
-    <row r="215" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N215">
-        <f t="shared" si="19"/>
-        <v>36624.549400690259</v>
-      </c>
-    </row>
-    <row r="216" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N216">
-        <f t="shared" si="19"/>
-        <v>36369.959682909895</v>
-      </c>
-    </row>
-    <row r="217" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N217">
-        <f t="shared" si="19"/>
-        <v>36117.139704975074</v>
-      </c>
-    </row>
-    <row r="218" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N218">
-        <f t="shared" si="19"/>
-        <v>35866.077164821327</v>
-      </c>
-    </row>
-    <row r="219" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N219">
-        <f t="shared" si="19"/>
-        <v>35616.759845900029</v>
-      </c>
-    </row>
-    <row r="220" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N220">
-        <f t="shared" si="19"/>
-        <v>35369.175616583947</v>
-      </c>
-    </row>
-    <row r="221" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N221">
-        <f t="shared" si="19"/>
-        <v>35123.312429576916</v>
-      </c>
-    </row>
-    <row r="222" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N222">
-        <f t="shared" si="19"/>
-        <v>34879.158321327624</v>
-      </c>
-    </row>
-    <row r="223" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N223">
-        <f t="shared" si="19"/>
-        <v>34636.701411447495</v>
-      </c>
-    </row>
-    <row r="224" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N224">
-        <f t="shared" si="19"/>
-        <v>34395.929902132571</v>
-      </c>
-    </row>
-    <row r="225" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N225">
-        <f t="shared" si="19"/>
-        <v>34156.832077589446</v>
-      </c>
-    </row>
-    <row r="226" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N226">
-        <f t="shared" ref="N226:N289" si="20">N225/1.007</f>
-        <v>33919.396303465197</v>
-      </c>
-    </row>
-    <row r="227" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N227">
-        <f t="shared" si="20"/>
-        <v>33683.611026281229</v>
-      </c>
-    </row>
-    <row r="228" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N228">
-        <f t="shared" si="20"/>
-        <v>33449.464772871135</v>
-      </c>
-    </row>
-    <row r="229" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N229">
-        <f t="shared" si="20"/>
-        <v>33216.946149822383</v>
-      </c>
-    </row>
-    <row r="230" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N230">
-        <f t="shared" si="20"/>
-        <v>32986.043842921936</v>
-      </c>
-    </row>
-    <row r="231" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N231">
-        <f t="shared" si="20"/>
-        <v>32756.746616605698</v>
-      </c>
-    </row>
-    <row r="232" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N232">
-        <f t="shared" si="20"/>
-        <v>32529.043313411818</v>
-      </c>
-    </row>
-    <row r="233" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N233">
-        <f t="shared" si="20"/>
-        <v>32302.922853437758</v>
-      </c>
-    </row>
-    <row r="234" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N234">
-        <f t="shared" si="20"/>
-        <v>32078.374233801154</v>
-      </c>
-    </row>
-    <row r="235" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N235">
-        <f t="shared" si="20"/>
-        <v>31855.386528104427</v>
-      </c>
-    </row>
-    <row r="236" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N236">
-        <f t="shared" si="20"/>
-        <v>31633.948885903108</v>
-      </c>
-    </row>
-    <row r="237" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N237">
-        <f t="shared" si="20"/>
-        <v>31414.050532177866</v>
-      </c>
-    </row>
-    <row r="238" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N238">
-        <f t="shared" si="20"/>
-        <v>31195.680766810197</v>
-      </c>
-    </row>
-    <row r="239" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N239">
-        <f t="shared" si="20"/>
-        <v>30978.82896406177</v>
-      </c>
-    </row>
-    <row r="240" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N240">
-        <f t="shared" si="20"/>
-        <v>30763.484572057372</v>
-      </c>
-    </row>
-    <row r="241" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N241">
-        <f t="shared" si="20"/>
-        <v>30549.637112271474</v>
-      </c>
-    </row>
-    <row r="242" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N242">
-        <f t="shared" si="20"/>
-        <v>30337.276179018347</v>
-      </c>
-    </row>
-    <row r="243" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N243">
-        <f t="shared" si="20"/>
-        <v>30126.391438945731</v>
-      </c>
-    </row>
-    <row r="244" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N244">
-        <f t="shared" si="20"/>
-        <v>29916.972630532011</v>
-      </c>
-    </row>
-    <row r="245" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N245">
-        <f t="shared" si="20"/>
-        <v>29709.009563586907</v>
-      </c>
-    </row>
-    <row r="246" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N246">
-        <f t="shared" si="20"/>
-        <v>29502.492118755621</v>
-      </c>
-    </row>
-    <row r="247" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N247">
-        <f t="shared" si="20"/>
-        <v>29297.410247026441</v>
-      </c>
-    </row>
-    <row r="248" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N248">
-        <f t="shared" si="20"/>
-        <v>29093.753969241752</v>
-      </c>
-    </row>
-    <row r="249" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N249">
-        <f t="shared" si="20"/>
-        <v>28891.513375612467</v>
-      </c>
-    </row>
-    <row r="250" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N250">
-        <f t="shared" si="20"/>
-        <v>28690.678625235818</v>
-      </c>
-    </row>
-    <row r="251" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N251">
-        <f t="shared" si="20"/>
-        <v>28491.239945616504</v>
-      </c>
-    </row>
-    <row r="252" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N252">
-        <f t="shared" si="20"/>
-        <v>28293.18763219117</v>
-      </c>
-    </row>
-    <row r="253" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N253">
-        <f t="shared" si="20"/>
-        <v>28096.51204785618</v>
-      </c>
-    </row>
-    <row r="254" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N254">
-        <f t="shared" si="20"/>
-        <v>27901.203622498691</v>
-      </c>
-    </row>
-    <row r="255" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N255">
-        <f t="shared" si="20"/>
-        <v>27707.252852530979</v>
-      </c>
-    </row>
-    <row r="256" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N256">
-        <f t="shared" si="20"/>
-        <v>27514.650300427988</v>
-      </c>
-    </row>
-    <row r="257" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N257">
-        <f t="shared" si="20"/>
-        <v>27323.386594268115</v>
-      </c>
-    </row>
-    <row r="258" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N258">
-        <f t="shared" si="20"/>
-        <v>27133.452427277178</v>
-      </c>
-    </row>
-    <row r="259" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N259">
-        <f t="shared" si="20"/>
-        <v>26944.838557375551</v>
-      </c>
-    </row>
-    <row r="260" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N260">
-        <f t="shared" si="20"/>
-        <v>26757.535806728454</v>
-      </c>
-    </row>
-    <row r="261" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N261">
-        <f t="shared" si="20"/>
-        <v>26571.535061299361</v>
-      </c>
-    </row>
-    <row r="262" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N262">
-        <f t="shared" si="20"/>
-        <v>26386.827270406517</v>
-      </c>
-    </row>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N263">
-        <f t="shared" si="20"/>
-        <v>26203.40344628254</v>
-      </c>
-    </row>
-    <row r="264" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N264">
-        <f t="shared" si="20"/>
-        <v>26021.254663637083</v>
-      </c>
-    </row>
-    <row r="265" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N265">
-        <f t="shared" si="20"/>
-        <v>25840.372059222529</v>
-      </c>
-    </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N266">
-        <f t="shared" si="20"/>
-        <v>25660.746831402714</v>
-      </c>
-    </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N267">
-        <f t="shared" si="20"/>
-        <v>25482.370239724645</v>
-      </c>
-    </row>
-    <row r="268" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N268">
-        <f t="shared" si="20"/>
-        <v>25305.233604493194</v>
-      </c>
-    </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N269">
-        <f t="shared" si="20"/>
-        <v>25129.328306348754</v>
-      </c>
-    </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N270">
-        <f t="shared" si="20"/>
-        <v>24954.645785847821</v>
-      </c>
-    </row>
-    <row r="271" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N271">
-        <f t="shared" si="20"/>
-        <v>24781.177543046499</v>
-      </c>
-    </row>
-    <row r="272" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N272">
-        <f t="shared" si="20"/>
-        <v>24608.915137086893</v>
-      </c>
-    </row>
-    <row r="273" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N273">
-        <f t="shared" si="20"/>
-        <v>24437.850185786392</v>
-      </c>
-    </row>
-    <row r="274" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N274">
-        <f t="shared" si="20"/>
-        <v>24267.974365229788</v>
-      </c>
-    </row>
-    <row r="275" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N275">
-        <f t="shared" si="20"/>
-        <v>24099.279409364241</v>
-      </c>
-    </row>
-    <row r="276" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N276">
-        <f t="shared" si="20"/>
-        <v>23931.757109597063</v>
-      </c>
-    </row>
-    <row r="277" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N277">
-        <f t="shared" si="20"/>
-        <v>23765.399314396291</v>
-      </c>
-    </row>
-    <row r="278" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N278">
-        <f t="shared" si="20"/>
-        <v>23600.197928894035</v>
-      </c>
-    </row>
-    <row r="279" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N279">
-        <f t="shared" si="20"/>
-        <v>23436.14491449259</v>
-      </c>
-    </row>
-    <row r="280" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N280">
-        <f t="shared" si="20"/>
-        <v>23273.232288473278</v>
-      </c>
-    </row>
-    <row r="281" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N281">
-        <f t="shared" si="20"/>
-        <v>23111.452123608025</v>
-      </c>
-    </row>
-    <row r="282" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N282">
-        <f t="shared" si="20"/>
-        <v>22950.796547773614</v>
-      </c>
-    </row>
-    <row r="283" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N283">
-        <f t="shared" si="20"/>
-        <v>22791.257743568636</v>
-      </c>
-    </row>
-    <row r="284" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N284">
-        <f t="shared" si="20"/>
-        <v>22632.827947933107</v>
-      </c>
-    </row>
-    <row r="285" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N285">
-        <f t="shared" si="20"/>
-        <v>22475.499451770713</v>
-      </c>
-    </row>
-    <row r="286" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N286">
-        <f t="shared" si="20"/>
-        <v>22319.2645995737</v>
-      </c>
-    </row>
-    <row r="287" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N287">
-        <f t="shared" si="20"/>
-        <v>22164.115789050349</v>
-      </c>
-    </row>
-    <row r="288" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N288">
-        <f t="shared" si="20"/>
-        <v>22010.045470755067</v>
-      </c>
-    </row>
-    <row r="289" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N289">
-        <f t="shared" si="20"/>
-        <v>21857.046147721023</v>
-      </c>
-    </row>
-    <row r="290" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N290">
-        <f t="shared" ref="N290:N353" si="21">N289/1.007</f>
-        <v>21705.110375095359</v>
-      </c>
-    </row>
-    <row r="291" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N291">
-        <f t="shared" si="21"/>
-        <v>21554.230759776921</v>
-      </c>
-    </row>
-    <row r="292" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N292">
-        <f t="shared" si="21"/>
-        <v>21404.399960056529</v>
-      </c>
-    </row>
-    <row r="293" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N293">
-        <f t="shared" si="21"/>
-        <v>21255.610685259715</v>
-      </c>
-    </row>
-    <row r="294" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N294">
-        <f t="shared" si="21"/>
-        <v>21107.855695391972</v>
-      </c>
-    </row>
-    <row r="295" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N295">
-        <f t="shared" si="21"/>
-        <v>20961.127800786468</v>
-      </c>
-    </row>
-    <row r="296" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N296">
-        <f t="shared" si="21"/>
-        <v>20815.419861754192</v>
-      </c>
-    </row>
-    <row r="297" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N297">
-        <f t="shared" si="21"/>
-        <v>20670.724788236537</v>
-      </c>
-    </row>
-    <row r="298" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N298">
-        <f t="shared" si="21"/>
-        <v>20527.035539460318</v>
-      </c>
-    </row>
-    <row r="299" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N299">
-        <f t="shared" si="21"/>
-        <v>20384.345123595154</v>
-      </c>
-    </row>
-    <row r="300" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N300">
-        <f t="shared" si="21"/>
-        <v>20242.646597413262</v>
-      </c>
-    </row>
-    <row r="301" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N301">
-        <f t="shared" si="21"/>
-        <v>20101.933065951602</v>
-      </c>
-    </row>
-    <row r="302" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N302">
-        <f t="shared" si="21"/>
-        <v>19962.197682176371</v>
-      </c>
-    </row>
-    <row r="303" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N303">
-        <f t="shared" si="21"/>
-        <v>19823.433646649824</v>
-      </c>
-    </row>
-    <row r="304" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N304">
-        <f t="shared" si="21"/>
-        <v>19685.63420719943</v>
-      </c>
-    </row>
-    <row r="305" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N305">
-        <f t="shared" si="21"/>
-        <v>19548.792658589307</v>
-      </c>
-    </row>
-    <row r="306" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N306">
-        <f t="shared" si="21"/>
-        <v>19412.902342193953</v>
-      </c>
-    </row>
-    <row r="307" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N307">
-        <f t="shared" si="21"/>
-        <v>19277.956645674236</v>
-      </c>
-    </row>
-    <row r="308" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N308">
-        <f t="shared" si="21"/>
-        <v>19143.949002655649</v>
-      </c>
-    </row>
-    <row r="309" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N309">
-        <f t="shared" si="21"/>
-        <v>19010.872892408788</v>
-      </c>
-    </row>
-    <row r="310" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N310">
-        <f t="shared" si="21"/>
-        <v>18878.721839532067</v>
-      </c>
-    </row>
-    <row r="311" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N311">
-        <f t="shared" si="21"/>
-        <v>18747.489413636613</v>
-      </c>
-    </row>
-    <row r="312" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N312">
-        <f t="shared" si="21"/>
-        <v>18617.169229033381</v>
-      </c>
-    </row>
-    <row r="313" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N313">
-        <f t="shared" si="21"/>
-        <v>18487.754944422428</v>
-      </c>
-    </row>
-    <row r="314" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N314">
-        <f t="shared" si="21"/>
-        <v>18359.240262584339</v>
-      </c>
-    </row>
-    <row r="315" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N315">
-        <f t="shared" si="21"/>
-        <v>18231.618930073822</v>
-      </c>
-    </row>
-    <row r="316" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N316">
-        <f t="shared" si="21"/>
-        <v>18104.884736915417</v>
-      </c>
-    </row>
-    <row r="317" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N317">
-        <f t="shared" si="21"/>
-        <v>17979.031516301311</v>
-      </c>
-    </row>
-    <row r="318" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N318">
-        <f t="shared" si="21"/>
-        <v>17854.053144291272</v>
-      </c>
-    </row>
-    <row r="319" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N319">
-        <f t="shared" si="21"/>
-        <v>17729.943539514672</v>
-      </c>
-    </row>
-    <row r="320" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N320">
-        <f t="shared" si="21"/>
-        <v>17606.69666287455</v>
-      </c>
-    </row>
-    <row r="321" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N321">
-        <f t="shared" si="21"/>
-        <v>17484.306517253775</v>
-      </c>
-    </row>
-    <row r="322" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N322">
-        <f t="shared" si="21"/>
-        <v>17362.767147223214</v>
-      </c>
-    </row>
-    <row r="323" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N323">
-        <f t="shared" si="21"/>
-        <v>17242.072638751953</v>
-      </c>
-    </row>
-    <row r="324" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N324">
-        <f t="shared" si="21"/>
-        <v>17122.217118919518</v>
-      </c>
-    </row>
-    <row r="325" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N325">
-        <f t="shared" si="21"/>
-        <v>17003.194755630109</v>
-      </c>
-    </row>
-    <row r="326" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N326">
-        <f t="shared" si="21"/>
-        <v>16884.999757328809</v>
-      </c>
-    </row>
-    <row r="327" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N327">
-        <f t="shared" si="21"/>
-        <v>16767.626372719773</v>
-      </c>
-    </row>
-    <row r="328" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N328">
-        <f t="shared" si="21"/>
-        <v>16651.068890486371</v>
-      </c>
-    </row>
-    <row r="329" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N329">
-        <f t="shared" si="21"/>
-        <v>16535.32163901328</v>
-      </c>
-    </row>
-    <row r="330" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N330">
-        <f t="shared" si="21"/>
-        <v>16420.378986110507</v>
-      </c>
-    </row>
-    <row r="331" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N331">
-        <f t="shared" si="21"/>
-        <v>16306.235338739334</v>
-      </c>
-    </row>
-    <row r="332" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N332">
-        <f t="shared" si="21"/>
-        <v>16192.885142740155</v>
-      </c>
-    </row>
-    <row r="333" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N333">
-        <f t="shared" si="21"/>
-        <v>16080.322882562221</v>
-      </c>
-    </row>
-    <row r="334" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N334">
-        <f t="shared" si="21"/>
-        <v>15968.543080995256</v>
-      </c>
-    </row>
-    <row r="335" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N335">
-        <f t="shared" si="21"/>
-        <v>15857.540298902937</v>
-      </c>
-    </row>
-    <row r="336" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N336">
-        <f t="shared" si="21"/>
-        <v>15747.309134958232</v>
-      </c>
-    </row>
-    <row r="337" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N337">
-        <f t="shared" si="21"/>
-        <v>15637.84422538057</v>
-      </c>
-    </row>
-    <row r="338" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N338">
-        <f t="shared" si="21"/>
-        <v>15529.140243674847</v>
-      </c>
-    </row>
-    <row r="339" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N339">
-        <f t="shared" si="21"/>
-        <v>15421.191900372243</v>
-      </c>
-    </row>
-    <row r="340" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N340">
-        <f t="shared" si="21"/>
-        <v>15313.993942772835</v>
-      </c>
-    </row>
-    <row r="341" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N341">
-        <f t="shared" si="21"/>
-        <v>15207.541154690007</v>
-      </c>
-    </row>
-    <row r="342" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N342">
-        <f t="shared" si="21"/>
-        <v>15101.828356196633</v>
-      </c>
-    </row>
-    <row r="343" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N343">
-        <f t="shared" si="21"/>
-        <v>14996.850403373022</v>
-      </c>
-    </row>
-    <row r="344" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N344">
-        <f t="shared" si="21"/>
-        <v>14892.602188056628</v>
-      </c>
-    </row>
-    <row r="345" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N345">
-        <f t="shared" si="21"/>
-        <v>14789.078637593475</v>
-      </c>
-    </row>
-    <row r="346" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N346">
-        <f t="shared" si="21"/>
-        <v>14686.274714591336</v>
-      </c>
-    </row>
-    <row r="347" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N347">
-        <f t="shared" si="21"/>
-        <v>14584.185416674616</v>
-      </c>
-    </row>
-    <row r="348" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N348">
-        <f t="shared" si="21"/>
-        <v>14482.805776240932</v>
-      </c>
-    </row>
-    <row r="349" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N349">
-        <f t="shared" si="21"/>
-        <v>14382.130860219397</v>
-      </c>
-    </row>
-    <row r="350" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N350">
-        <f t="shared" si="21"/>
-        <v>14282.155769830584</v>
-      </c>
-    </row>
-    <row r="351" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N351">
-        <f t="shared" si="21"/>
-        <v>14182.875640348149</v>
-      </c>
-    </row>
-    <row r="352" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N352">
-        <f t="shared" si="21"/>
-        <v>14084.285640862116</v>
-      </c>
-    </row>
-    <row r="353" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N353">
-        <f t="shared" si="21"/>
-        <v>13986.38097404381</v>
-      </c>
-    </row>
-    <row r="354" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N354">
-        <f t="shared" ref="N354:N410" si="22">N353/1.007</f>
-        <v>13889.156875912424</v>
-      </c>
-    </row>
-    <row r="355" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N355">
-        <f t="shared" si="22"/>
-        <v>13792.608615603203</v>
-      </c>
-    </row>
-    <row r="356" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N356">
-        <f t="shared" si="22"/>
-        <v>13696.731495137245</v>
-      </c>
-    </row>
-    <row r="357" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N357">
-        <f t="shared" si="22"/>
-        <v>13601.520849192895</v>
-      </c>
-    </row>
-    <row r="358" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N358">
-        <f t="shared" si="22"/>
-        <v>13506.972044878745</v>
-      </c>
-    </row>
-    <row r="359" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N359">
-        <f t="shared" si="22"/>
-        <v>13413.080481508188</v>
-      </c>
-    </row>
-    <row r="360" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N360">
-        <f t="shared" si="22"/>
-        <v>13319.841590375561</v>
-      </c>
-    </row>
-    <row r="361" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N361">
-        <f t="shared" si="22"/>
-        <v>13227.250834533826</v>
-      </c>
-    </row>
-    <row r="362" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N362">
-        <f t="shared" si="22"/>
-        <v>13135.303708573811</v>
-      </c>
-    </row>
-    <row r="363" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N363">
-        <f t="shared" si="22"/>
-        <v>13043.995738404978</v>
-      </c>
-    </row>
-    <row r="364" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N364">
-        <f t="shared" si="22"/>
-        <v>12953.322481037714</v>
-      </c>
-    </row>
-    <row r="365" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N365">
-        <f t="shared" si="22"/>
-        <v>12863.279524367146</v>
-      </c>
-    </row>
-    <row r="366" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N366">
-        <f t="shared" si="22"/>
-        <v>12773.862486958438</v>
-      </c>
-    </row>
-    <row r="367" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N367">
-        <f t="shared" si="22"/>
-        <v>12685.067017833604</v>
-      </c>
-    </row>
-    <row r="368" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N368">
-        <f t="shared" si="22"/>
-        <v>12596.888796259787</v>
-      </c>
-    </row>
-    <row r="369" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N369">
-        <f t="shared" si="22"/>
-        <v>12509.323531539016</v>
-      </c>
-    </row>
-    <row r="370" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N370">
-        <f t="shared" si="22"/>
-        <v>12422.36696279942</v>
-      </c>
-    </row>
-    <row r="371" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N371">
-        <f t="shared" si="22"/>
-        <v>12336.014858787907</v>
-      </c>
-    </row>
-    <row r="372" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N372">
-        <f t="shared" si="22"/>
-        <v>12250.263017664258</v>
-      </c>
-    </row>
-    <row r="373" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N373">
-        <f t="shared" si="22"/>
-        <v>12165.107266796682</v>
-      </c>
-    </row>
-    <row r="374" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N374">
-        <f t="shared" si="22"/>
-        <v>12080.543462558771</v>
-      </c>
-    </row>
-    <row r="375" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N375">
-        <f t="shared" si="22"/>
-        <v>11996.567490127878</v>
-      </c>
-    </row>
-    <row r="376" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N376">
-        <f t="shared" si="22"/>
-        <v>11913.175263284886</v>
-      </c>
-    </row>
-    <row r="377" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N377">
-        <f t="shared" si="22"/>
-        <v>11830.36272421538</v>
-      </c>
-    </row>
-    <row r="378" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N378">
-        <f t="shared" si="22"/>
-        <v>11748.125843312195</v>
-      </c>
-    </row>
-    <row r="379" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N379">
-        <f t="shared" si="22"/>
-        <v>11666.460618979341</v>
-      </c>
-    </row>
-    <row r="380" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N380">
-        <f t="shared" si="22"/>
-        <v>11585.363077437281</v>
-      </c>
-    </row>
-    <row r="381" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N381">
-        <f t="shared" si="22"/>
-        <v>11504.829272529576</v>
-      </c>
-    </row>
-    <row r="382" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N382">
-        <f t="shared" si="22"/>
-        <v>11424.855285530861</v>
-      </c>
-    </row>
-    <row r="383" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N383">
-        <f t="shared" si="22"/>
-        <v>11345.437224956169</v>
-      </c>
-    </row>
-    <row r="384" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N384">
-        <f t="shared" si="22"/>
-        <v>11266.571226371569</v>
-      </c>
-    </row>
-    <row r="385" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N385">
-        <f t="shared" si="22"/>
-        <v>11188.253452206127</v>
-      </c>
-    </row>
-    <row r="386" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N386">
-        <f t="shared" si="22"/>
-        <v>11110.480091565172</v>
-      </c>
-    </row>
-    <row r="387" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N387">
-        <f t="shared" si="22"/>
-        <v>11033.247360044859</v>
-      </c>
-    </row>
-    <row r="388" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N388">
-        <f t="shared" si="22"/>
-        <v>10956.551499548024</v>
-      </c>
-    </row>
-    <row r="389" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N389">
-        <f t="shared" si="22"/>
-        <v>10880.388778101316</v>
-      </c>
-    </row>
-    <row r="390" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N390">
-        <f t="shared" si="22"/>
-        <v>10804.755489673602</v>
-      </c>
-    </row>
-    <row r="391" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N391">
-        <f t="shared" si="22"/>
-        <v>10729.647953995634</v>
-      </c>
-    </row>
-    <row r="392" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N392">
-        <f t="shared" si="22"/>
-        <v>10655.062516380969</v>
-      </c>
-    </row>
-    <row r="393" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N393">
-        <f t="shared" si="22"/>
-        <v>10580.995547548133</v>
-      </c>
-    </row>
-    <row r="394" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N394">
-        <f t="shared" si="22"/>
-        <v>10507.443443444026</v>
-      </c>
-    </row>
-    <row r="395" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N395">
-        <f t="shared" si="22"/>
-        <v>10434.402625068547</v>
-      </c>
-    </row>
-    <row r="396" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N396">
-        <f t="shared" si="22"/>
-        <v>10361.869538300445</v>
-      </c>
-    </row>
-    <row r="397" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N397">
-        <f t="shared" si="22"/>
-        <v>10289.840653724375</v>
-      </c>
-    </row>
-    <row r="398" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N398">
-        <f t="shared" si="22"/>
-        <v>10218.312466459163</v>
-      </c>
-    </row>
-    <row r="399" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N399">
-        <f t="shared" si="22"/>
-        <v>10147.281495987254</v>
-      </c>
-    </row>
-    <row r="400" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N400">
-        <f t="shared" si="22"/>
-        <v>10076.744285985358</v>
-      </c>
-    </row>
-    <row r="401" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N401">
-        <f t="shared" si="22"/>
-        <v>10006.697404156266</v>
-      </c>
-    </row>
-    <row r="402" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N402">
-        <f t="shared" si="22"/>
-        <v>9937.137442061834</v>
-      </c>
-    </row>
-    <row r="403" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N403">
-        <f t="shared" si="22"/>
-        <v>9868.0610149571348</v>
-      </c>
-    </row>
-    <row r="404" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N404">
-        <f t="shared" si="22"/>
-        <v>9799.4647616257553</v>
-      </c>
-    </row>
-    <row r="405" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N405">
-        <f t="shared" si="22"/>
-        <v>9731.3453442162427</v>
-      </c>
-    </row>
-    <row r="406" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N406">
-        <f t="shared" si="22"/>
-        <v>9663.6994480796857</v>
-      </c>
-    </row>
-    <row r="407" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N407">
-        <f t="shared" si="22"/>
-        <v>9596.5237816084282</v>
-      </c>
-    </row>
-    <row r="408" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N408">
-        <f t="shared" si="22"/>
-        <v>9529.8150760758981</v>
-      </c>
-    </row>
-    <row r="409" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N409">
-        <f t="shared" si="22"/>
-        <v>9463.5700854775569</v>
-      </c>
-    </row>
-    <row r="410" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N410">
-        <f t="shared" si="22"/>
-        <v>9397.7855863729474</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A73E4-A3FC-4539-B977-0BB09AA991AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5CEA29-0528-4AD1-93EB-E413175FBEC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>if_finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expect2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,26 @@
   </si>
   <si>
     <t>卖掉了50etf，17.005买入迪安诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.28卖出700中兴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6236,8 +6252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6246,7 +6262,7 @@
     <col min="9" max="9" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6272,10 +6288,13 @@
         <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6287,6 +6306,10 @@
         <f>43493.72-71000</f>
         <v>-27506.28</v>
       </c>
+      <c r="E2">
+        <f>F2+D2</f>
+        <v>43493.72</v>
+      </c>
       <c r="F2">
         <v>71000</v>
       </c>
@@ -6295,7 +6318,7 @@
         <v>0.61258760563380288</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6310,6 +6333,10 @@
         <f>46551-74000</f>
         <v>-27449</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E14" si="1">F3+D3</f>
+        <v>46551</v>
+      </c>
       <c r="F3">
         <v>74000</v>
       </c>
@@ -6321,12 +6348,12 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B76" si="1">B3*1.008</f>
+        <f t="shared" ref="B4:B76" si="2">B3*1.008</f>
         <v>0.58227163323782238</v>
       </c>
       <c r="C4" t="s">
@@ -6336,6 +6363,10 @@
         <f>50663.65-78000</f>
         <v>-27336.35</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>50663.65</v>
+      </c>
       <c r="F4">
         <v>78000</v>
       </c>
@@ -6347,12 +6378,12 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58692980630372493</v>
       </c>
       <c r="C5" t="s">
@@ -6362,6 +6393,10 @@
         <f>50356.55-78000</f>
         <v>-27643.449999999997</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>50356.55</v>
+      </c>
       <c r="F5">
         <v>78000</v>
       </c>
@@ -6376,12 +6411,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59162524475415479</v>
       </c>
       <c r="C6" t="s">
@@ -6391,6 +6426,10 @@
         <f>50682.52-78000</f>
         <v>-27317.480000000003</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>50682.52</v>
+      </c>
       <c r="F6">
         <v>78000</v>
       </c>
@@ -6405,12 +6444,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59635824671218807</v>
       </c>
       <c r="C7" t="s">
@@ -6420,6 +6459,10 @@
         <f>52197.49-80000</f>
         <v>-27802.510000000002</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>52197.49</v>
+      </c>
       <c r="F7">
         <v>80000</v>
       </c>
@@ -6434,12 +6477,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60112911268588554</v>
       </c>
       <c r="C8" t="s">
@@ -6449,6 +6492,10 @@
         <f>53034.54-80000</f>
         <v>-26965.46</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>53034.54</v>
+      </c>
       <c r="F8">
         <v>80000</v>
       </c>
@@ -6460,12 +6507,12 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60593814558737258</v>
       </c>
       <c r="C9" t="s">
@@ -6475,6 +6522,10 @@
         <f>54910-80000</f>
         <v>-25090</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>54910</v>
+      </c>
       <c r="F9">
         <v>80000</v>
       </c>
@@ -6486,12 +6537,12 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61078565075207158</v>
       </c>
       <c r="C10" t="s">
@@ -6501,6 +6552,10 @@
         <f>57585.46-84000</f>
         <v>-26414.54</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>57585.46</v>
+      </c>
       <c r="F10">
         <v>84000</v>
       </c>
@@ -6515,12 +6570,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61567193595808811</v>
       </c>
       <c r="C11" t="s">
@@ -6530,6 +6585,10 @@
         <f>57201.44-84000</f>
         <v>-26798.559999999998</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>57201.440000000002</v>
+      </c>
       <c r="F11">
         <v>84000</v>
       </c>
@@ -6544,12 +6603,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62059731144575281</v>
       </c>
       <c r="C12" t="s">
@@ -6558,9 +6617,6 @@
       <c r="F12">
         <v>84000</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12" s="1">
         <v>43398</v>
       </c>
@@ -6568,12 +6624,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62556208993731888</v>
       </c>
       <c r="C13" t="s">
@@ -6583,23 +6639,27 @@
         <f>57210.46-84000</f>
         <v>-26789.54</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>57210.46</v>
+      </c>
       <c r="F13">
         <v>84000</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G22" si="2">(F13+D13)/F13</f>
+        <f t="shared" ref="G13:G22" si="3">(F13+D13)/F13</f>
         <v>0.68107690476190474</v>
       </c>
       <c r="H13" s="1">
         <v>43399</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63056658665681742</v>
       </c>
       <c r="C14" t="s">
@@ -6609,23 +6669,27 @@
         <f>56955.46-84000</f>
         <v>-27044.54</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>56955.46</v>
+      </c>
       <c r="F14">
         <v>84000</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67804119047619049</v>
       </c>
       <c r="H14" s="1">
         <v>43402</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63561111935007197</v>
       </c>
       <c r="C15" t="s">
@@ -6636,14 +6700,14 @@
         <v>-26996.54</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E16" si="3">F15+D15</f>
+        <f t="shared" ref="E15:E16" si="4">F15+D15</f>
         <v>57003.46</v>
       </c>
       <c r="F15">
         <v>84000</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67861261904761905</v>
       </c>
       <c r="H15" s="1">
@@ -6653,24 +6717,20 @@
         <f>56000/1.006</f>
         <v>55666.00397614314</v>
       </c>
-      <c r="K15">
-        <f>F15*B15</f>
-        <v>53391.334025406046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6406960083048725</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
@@ -6686,7 +6746,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64582157637131143</v>
       </c>
       <c r="C17" t="s">
@@ -6704,7 +6764,7 @@
         <v>84000</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69139833333333334</v>
       </c>
       <c r="H17" s="1">
@@ -6714,10 +6774,6 @@
         <f>J16*1.006</f>
         <v>56336</v>
       </c>
-      <c r="K17">
-        <f t="shared" ref="K17:L34" si="4">F17*B17</f>
-        <v>54249.012415190162</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -6738,7 +6794,7 @@
         <v>84000</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70507690476190477</v>
       </c>
       <c r="H18" s="1">
@@ -6748,10 +6804,6 @@
         <f>J17*1.006</f>
         <v>56674.016000000003</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>54683.004514511682</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
@@ -6775,7 +6827,7 @@
         <v>84000</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70615809523809525</v>
       </c>
       <c r="H20" s="1">
@@ -6788,17 +6840,13 @@
         <f>J18*1.006</f>
         <v>57014.060096000001</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>55120.468550627775</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66144562260753326</v>
       </c>
       <c r="C21" t="s">
@@ -6816,7 +6864,7 @@
         <v>84000</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69912214285714291</v>
       </c>
       <c r="H21" s="1">
@@ -6829,17 +6877,13 @@
         <f>J20*1.006</f>
         <v>57356.144456576003</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>55561.432299032793</v>
-      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66673718758839351</v>
       </c>
       <c r="C22" t="s">
@@ -6857,7 +6901,7 @@
         <v>84000</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69802750000000002</v>
       </c>
       <c r="H22" s="1">
@@ -6867,17 +6911,13 @@
         <f t="shared" ref="J22:J24" si="5">J21*1.006</f>
         <v>57700.281323315459</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>56005.923757425058</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67207108508910063</v>
       </c>
       <c r="C23" t="s">
@@ -6907,10 +6947,6 @@
         <f t="shared" si="5"/>
         <v>58046.483011255354</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>56453.971147484452</v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -6944,10 +6980,6 @@
         <f t="shared" si="5"/>
         <v>58394.761909322886</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>56905.602916664327</v>
-      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H25" s="1"/>
@@ -6987,17 +7019,13 @@
         <f>J24*1.006</f>
         <v>58745.130480778826</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>57360.84773999764</v>
-      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.68833017287997167</v>
       </c>
       <c r="C27" t="s">
@@ -7027,17 +7055,13 @@
         <f>J26*1.006</f>
         <v>59097.601263663499</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>57819.73452191762</v>
-      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69383681426301147</v>
       </c>
       <c r="C28" t="s">
@@ -7067,17 +7091,13 @@
         <f t="shared" ref="J28:J30" si="7">J27*1.006</f>
         <v>59452.186871245482</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>58282.292398092963</v>
-      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69938750877711553</v>
       </c>
       <c r="C29" t="s">
@@ -7107,17 +7127,13 @@
         <f t="shared" si="7"/>
         <v>59808.899992472958</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>58748.550737277707</v>
-      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70498260884733244</v>
       </c>
       <c r="C30" t="s">
@@ -7147,12 +7163,13 @@
         <f t="shared" si="7"/>
         <v>60167.753392427796</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>59218.539143175927</v>
-      </c>
       <c r="L30">
         <v>55120.468550627775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>58038.66</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -7191,8 +7208,8 @@
         <v>60528.759912782363</v>
       </c>
       <c r="K32">
-        <f>F32*B32</f>
-        <v>59692.287456321326</v>
+        <f>K31*1.007</f>
+        <v>58444.930619999999</v>
       </c>
       <c r="L32">
         <v>55561.432299032793</v>
@@ -7203,11 +7220,11 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7163074494758559</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <f>E33-F33</f>
@@ -7227,15 +7244,15 @@
         <v>43424</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <f>J32*1.006</f>
         <v>60891.932472259061</v>
       </c>
       <c r="K33">
-        <f>F33*B33</f>
-        <v>60169.825755971899</v>
+        <f>K32*1.007</f>
+        <v>58854.045134339991</v>
       </c>
       <c r="L33">
         <v>56005.923757425058</v>
@@ -7246,11 +7263,11 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72203790907166276</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <f>E34-F34</f>
@@ -7270,15 +7287,15 @@
         <v>43425</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <f t="shared" ref="J34:J36" si="8">J33*1.006</f>
         <v>61257.284067092616</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
-        <v>60651.184362019674</v>
+        <f>K33*1.007</f>
+        <v>59266.023450280365</v>
       </c>
       <c r="L34">
         <v>56453.971147484452</v>
@@ -7289,8 +7306,11 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72781421234423604</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
       </c>
       <c r="D35">
         <f>E35-F35</f>
@@ -7314,8 +7334,8 @@
         <v>61624.827771495169</v>
       </c>
       <c r="K35">
-        <f>F35*B35</f>
-        <v>61136.393836915828</v>
+        <f>K34*1.007</f>
+        <v>59680.885614432322</v>
       </c>
       <c r="L35">
         <v>56905.602916664327</v>
@@ -7326,22 +7346,36 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73363672604298991</v>
+      </c>
+      <c r="D36">
+        <f>E36-F36</f>
+        <v>-26473.86</v>
+      </c>
+      <c r="E36">
+        <v>57526.14</v>
       </c>
       <c r="F36">
         <v>84000</v>
       </c>
+      <c r="G36">
+        <f>(F36+D36)/F36</f>
+        <v>0.68483499999999997</v>
+      </c>
       <c r="H36" s="1">
         <v>43427</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
         <v>61994.576738124139</v>
       </c>
       <c r="K36">
-        <f>F36*B36</f>
-        <v>61625.484987611155</v>
+        <f>K35*1.007</f>
+        <v>60098.651813733341</v>
       </c>
       <c r="L36">
         <v>57360.84773999764</v>
@@ -7355,19 +7389,33 @@
         <f>B36*1.008</f>
         <v>0.73950581985133379</v>
       </c>
+      <c r="D38">
+        <f>E38-F38</f>
+        <v>-25472.39</v>
+      </c>
+      <c r="E38">
+        <v>58527.61</v>
+      </c>
       <c r="F38">
         <v>84000</v>
       </c>
+      <c r="G38">
+        <f>E38/F38</f>
+        <v>0.69675726190476195</v>
+      </c>
       <c r="H38" s="1">
         <v>43430</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
       </c>
       <c r="J38">
         <f>J36*1.006</f>
         <v>62366.544198552881</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:L94" si="9">F38*B38</f>
-        <v>62118.488867512038</v>
+        <f>K36*1.007</f>
+        <v>60519.342376429471</v>
       </c>
       <c r="L38">
         <v>57819.73452191762</v>
@@ -7378,7 +7426,7 @@
         <v>33</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74542186641014452</v>
       </c>
       <c r="F39">
@@ -7392,8 +7440,8 @@
         <v>62740.743463744198</v>
       </c>
       <c r="K39">
-        <f t="shared" si="9"/>
-        <v>62615.436778452138</v>
+        <f>K38*1.007</f>
+        <v>60942.977773064471</v>
       </c>
       <c r="L39">
         <v>58282.292398092963</v>
@@ -7404,7 +7452,7 @@
         <v>34</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7513852413414257</v>
       </c>
       <c r="F40">
@@ -7414,12 +7462,12 @@
         <v>43432</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J42" si="10">J39*1.006</f>
+        <f t="shared" ref="J40:J42" si="9">J39*1.006</f>
         <v>63117.187924526661</v>
       </c>
       <c r="K40">
-        <f t="shared" si="9"/>
-        <v>63116.360272679762</v>
+        <f>K39*1.007</f>
+        <v>61369.578617475912</v>
       </c>
       <c r="L40">
         <v>58748.550737277707</v>
@@ -7430,7 +7478,7 @@
         <v>35</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75739632327215711</v>
       </c>
       <c r="F41">
@@ -7440,12 +7488,12 @@
         <v>43433</v>
       </c>
       <c r="J41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>63495.891052073821</v>
       </c>
       <c r="K41">
-        <f t="shared" si="9"/>
-        <v>63621.291154861196</v>
+        <f>K40*1.007</f>
+        <v>61799.165667798239</v>
       </c>
       <c r="L41">
         <v>59218.539143175927</v>
@@ -7456,7 +7504,7 @@
         <v>36</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76345549385833433</v>
       </c>
       <c r="F42">
@@ -7466,12 +7514,12 @@
         <v>43434</v>
       </c>
       <c r="J42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>63876.866398386264</v>
       </c>
       <c r="K42">
-        <f t="shared" si="9"/>
-        <v>64130.261484100083</v>
+        <f>K41*1.007</f>
+        <v>62231.759827472823</v>
       </c>
       <c r="L42">
         <v>59692.287456321326</v>
@@ -7496,8 +7544,8 @@
         <v>64260.127596776583</v>
       </c>
       <c r="K44">
-        <f t="shared" si="9"/>
-        <v>64643.303575972888</v>
+        <f>K42*1.007</f>
+        <v>62667.382146265125</v>
       </c>
       <c r="L44">
         <v>60169.825755971899</v>
@@ -7508,7 +7556,7 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77571964291167461</v>
       </c>
       <c r="F45">
@@ -7522,8 +7570,8 @@
         <v>64645.688362357243</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
-        <v>65160.450004580671</v>
+        <f>K44*1.007</f>
+        <v>63106.053821288973</v>
       </c>
       <c r="L45">
         <v>60651.184362019674</v>
@@ -7534,7 +7582,7 @@
         <v>39</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78192540005496802</v>
       </c>
       <c r="F46">
@@ -7544,12 +7592,12 @@
         <v>43439</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:J48" si="11">J45*1.006</f>
+        <f t="shared" ref="J46:J48" si="10">J45*1.006</f>
         <v>65033.56249253139</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
-        <v>65681.733604617315</v>
+        <f>K45*1.007</f>
+        <v>63547.796198037991</v>
       </c>
       <c r="L46">
         <v>61136.393836915828</v>
@@ -7560,7 +7608,7 @@
         <v>40</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78818080325540774</v>
       </c>
       <c r="F47">
@@ -7570,12 +7618,12 @@
         <v>43440</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>65423.763867486581</v>
       </c>
       <c r="K47">
-        <f t="shared" si="9"/>
-        <v>66207.187473454251</v>
+        <f>K46*1.007</f>
+        <v>63992.63077142425</v>
       </c>
       <c r="L47">
         <v>61625.484987611155</v>
@@ -7586,7 +7634,7 @@
         <v>41</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79448624968145098</v>
       </c>
       <c r="F48">
@@ -7596,12 +7644,12 @@
         <v>43441</v>
       </c>
       <c r="J48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>65816.306450691496</v>
       </c>
       <c r="K48">
-        <f t="shared" si="9"/>
-        <v>66736.844973241881</v>
+        <f>K47*1.007</f>
+        <v>64440.579186824216</v>
       </c>
       <c r="L48">
         <v>62118.488867512038</v>
@@ -7626,8 +7674,8 @@
         <v>66211.204289395639</v>
       </c>
       <c r="K50">
-        <f t="shared" si="9"/>
-        <v>67270.739733027818</v>
+        <f>K48*1.007</f>
+        <v>64891.663241131981</v>
       </c>
       <c r="L50">
         <v>62615.436778452138</v>
@@ -7638,7 +7686,7 @@
         <v>43</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80724887679633384</v>
       </c>
       <c r="F51">
@@ -7652,8 +7700,8 @@
         <v>66608.471515132012</v>
       </c>
       <c r="K51">
-        <f t="shared" si="9"/>
-        <v>67808.905650892048</v>
+        <f>K50*1.007</f>
+        <v>65345.904883819894</v>
       </c>
       <c r="L51">
         <v>63116.360272679762</v>
@@ -7664,7 +7712,7 @@
         <v>44</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81370686781070456</v>
       </c>
       <c r="F52">
@@ -7674,12 +7722,12 @@
         <v>43446</v>
       </c>
       <c r="J52">
-        <f t="shared" ref="J52:J54" si="12">J51*1.006</f>
+        <f t="shared" ref="J52:J54" si="11">J51*1.006</f>
         <v>67008.122344222807</v>
       </c>
       <c r="K52">
-        <f t="shared" si="9"/>
-        <v>68351.376896099187</v>
+        <f>K51*1.007</f>
+        <v>65803.326218006623</v>
       </c>
       <c r="L52">
         <v>63621.291154861196</v>
@@ -7690,7 +7738,7 @@
         <v>45</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82021652275319024</v>
       </c>
       <c r="F53">
@@ -7700,12 +7748,12 @@
         <v>43447</v>
       </c>
       <c r="J53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>67410.171078288142</v>
       </c>
       <c r="K53">
-        <f t="shared" si="9"/>
-        <v>68898.187911267974</v>
+        <f>K52*1.007</f>
+        <v>66263.949501532668</v>
       </c>
       <c r="L53">
         <v>64130.261484100083</v>
@@ -7716,7 +7764,7 @@
         <v>46</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82677825493521573</v>
       </c>
       <c r="F54">
@@ -7726,12 +7774,12 @@
         <v>43448</v>
       </c>
       <c r="J54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>67814.632104757868</v>
       </c>
       <c r="K54">
-        <f t="shared" si="9"/>
-        <v>69449.373414558126</v>
+        <f>K53*1.007</f>
+        <v>66727.797148043392</v>
       </c>
       <c r="L54">
         <v>64643.303575972888</v>
@@ -7756,8 +7804,8 @@
         <v>68221.519897386417</v>
       </c>
       <c r="K56">
-        <f t="shared" si="9"/>
-        <v>70004.96840187459</v>
+        <f>K54*1.007</f>
+        <v>67194.891728079689</v>
       </c>
       <c r="L56">
         <v>65160.450004580671</v>
@@ -7768,7 +7816,7 @@
         <v>48</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84005962082249497</v>
       </c>
       <c r="F57">
@@ -7782,8 +7830,8 @@
         <v>68630.849016770735</v>
       </c>
       <c r="K57">
-        <f t="shared" si="9"/>
-        <v>70565.008149089583</v>
+        <f>K56*1.007</f>
+        <v>67665.255970176237</v>
       </c>
       <c r="L57">
         <v>65681.733604617315</v>
@@ -7794,7 +7842,7 @@
         <v>49</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84678009778907493</v>
       </c>
       <c r="F58">
@@ -7804,12 +7852,12 @@
         <v>43453</v>
       </c>
       <c r="J58">
-        <f t="shared" ref="J58:J60" si="13">J57*1.006</f>
+        <f t="shared" ref="J58:J60" si="12">J57*1.006</f>
         <v>69042.634110871353</v>
       </c>
       <c r="K58">
-        <f t="shared" si="9"/>
-        <v>71129.528214282298</v>
+        <f>K57*1.007</f>
+        <v>68138.912761967469</v>
       </c>
       <c r="L58">
         <v>66207.187473454251</v>
@@ -7820,7 +7868,7 @@
         <v>50</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85355433857138752</v>
       </c>
       <c r="F59">
@@ -7830,12 +7878,12 @@
         <v>43454</v>
       </c>
       <c r="J59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>69456.88991553658</v>
       </c>
       <c r="K59">
-        <f t="shared" si="9"/>
-        <v>71698.564439996553</v>
+        <f>K58*1.007</f>
+        <v>68615.885151301234</v>
       </c>
       <c r="L59">
         <v>66736.844973241881</v>
@@ -7846,7 +7894,7 @@
         <v>51</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8603827732799586</v>
       </c>
       <c r="F60">
@@ -7856,12 +7904,12 @@
         <v>43455</v>
       </c>
       <c r="J60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>69873.631255029803</v>
       </c>
       <c r="K60">
-        <f t="shared" si="9"/>
-        <v>72272.152955516518</v>
+        <f>K59*1.007</f>
+        <v>69096.196347360339</v>
       </c>
       <c r="L60">
         <v>67270.739733027818</v>
@@ -7886,8 +7934,8 @@
         <v>70292.873042559979</v>
       </c>
       <c r="K62">
-        <f t="shared" si="9"/>
-        <v>72850.33017916065</v>
+        <f>K60*1.007</f>
+        <v>69579.869721791852</v>
       </c>
       <c r="L62">
         <v>67808.905650892048</v>
@@ -7898,7 +7946,7 @@
         <v>53</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8742039621499279</v>
       </c>
       <c r="F63">
@@ -7912,8 +7960,8 @@
         <v>70714.630280815341</v>
       </c>
       <c r="K63">
-        <f t="shared" si="9"/>
-        <v>73433.13282059395</v>
+        <f>K62*1.007</f>
+        <v>70066.928809844394</v>
       </c>
       <c r="L63">
         <v>68351.376896099187</v>
@@ -7924,7 +7972,7 @@
         <v>54</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88119759384712737</v>
       </c>
       <c r="F64">
@@ -7934,12 +7982,12 @@
         <v>43460</v>
       </c>
       <c r="J64">
-        <f t="shared" ref="J64:J66" si="14">J63*1.006</f>
+        <f t="shared" ref="J64:J66" si="13">J63*1.006</f>
         <v>71138.918062500234</v>
       </c>
       <c r="K64">
-        <f t="shared" si="9"/>
-        <v>74020.597883158698</v>
+        <f>K63*1.007</f>
+        <v>70557.397311513298</v>
       </c>
       <c r="L64">
         <v>68898.187911267974</v>
@@ -7950,7 +7998,7 @@
         <v>55</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88824717459790437</v>
       </c>
       <c r="F65">
@@ -7960,12 +8008,12 @@
         <v>43461</v>
       </c>
       <c r="J65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>71565.751570875233</v>
       </c>
       <c r="K65">
-        <f t="shared" si="9"/>
-        <v>74612.762666223964</v>
+        <f>K64*1.007</f>
+        <v>71051.29909269388</v>
       </c>
       <c r="L65">
         <v>69449.373414558126</v>
@@ -7976,7 +8024,7 @@
         <v>56</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89535315199468757</v>
       </c>
       <c r="F66">
@@ -7986,12 +8034,12 @@
         <v>43462</v>
       </c>
       <c r="J66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>71995.146080300488</v>
       </c>
       <c r="K66">
-        <f t="shared" si="9"/>
-        <v>75209.664767553753</v>
+        <f>K65*1.007</f>
+        <v>71548.658186342727</v>
       </c>
       <c r="L66">
         <v>70004.96840187459</v>
@@ -8016,8 +8064,8 @@
         <v>72427.116956782294</v>
       </c>
       <c r="K68">
-        <f t="shared" si="9"/>
-        <v>75811.342085694181</v>
+        <f>K66*1.007</f>
+        <v>72049.498793647115</v>
       </c>
       <c r="L68">
         <v>70565.008149089583</v>
@@ -8028,7 +8076,7 @@
         <v>58</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90973610502833024</v>
       </c>
       <c r="F69">
@@ -8042,8 +8090,8 @@
         <v>72861.679658522989</v>
       </c>
       <c r="K69">
-        <f t="shared" si="9"/>
-        <v>76417.832822379743</v>
+        <f>K68*1.007</f>
+        <v>72553.845285202638</v>
       </c>
       <c r="L69">
         <v>71129.528214282298</v>
@@ -8054,7 +8102,7 @@
         <v>59</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91701399386855686</v>
       </c>
       <c r="F70">
@@ -8064,12 +8112,12 @@
         <v>43469</v>
       </c>
       <c r="J70">
-        <f t="shared" ref="J70:J88" si="15">J69*1.006</f>
+        <f t="shared" ref="J70:J88" si="14">J69*1.006</f>
         <v>73298.849736474134</v>
       </c>
       <c r="K70">
-        <f t="shared" si="9"/>
-        <v>77029.175484958774</v>
+        <f>K69*1.007</f>
+        <v>73061.722202199046</v>
       </c>
       <c r="L70">
         <v>71698.564439996553</v>
@@ -8097,8 +8145,8 @@
         <v>73738.642834892977</v>
       </c>
       <c r="K72">
-        <f t="shared" si="9"/>
-        <v>77645.408888838443</v>
+        <f>K70*1.007</f>
+        <v>73573.154257614427</v>
       </c>
       <c r="L72">
         <v>72272.152955516518</v>
@@ -8109,7 +8157,7 @@
         <v>61</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93174490666606136</v>
       </c>
       <c r="F73">
@@ -8119,12 +8167,12 @@
         <v>43473</v>
       </c>
       <c r="J73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>74181.074691902337</v>
       </c>
       <c r="K73">
-        <f t="shared" si="9"/>
-        <v>78266.572159949152</v>
+        <f>K72*1.007</f>
+        <v>74088.166337417715</v>
       </c>
       <c r="L73">
         <v>72850.33017916065</v>
@@ -8135,7 +8183,7 @@
         <v>62</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93919886591938984</v>
       </c>
       <c r="F74">
@@ -8145,12 +8193,12 @@
         <v>43474</v>
       </c>
       <c r="J74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>74626.161140053751</v>
       </c>
       <c r="K74">
-        <f t="shared" si="9"/>
-        <v>78892.704737228749</v>
+        <f>K73*1.007</f>
+        <v>74606.783501779631</v>
       </c>
       <c r="L74">
         <v>73433.13282059395</v>
@@ -8161,7 +8209,7 @@
         <v>63</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94671245684674499</v>
       </c>
       <c r="F75">
@@ -8171,12 +8219,12 @@
         <v>43475</v>
       </c>
       <c r="J75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>75073.918106894067</v>
       </c>
       <c r="K75">
-        <f t="shared" si="9"/>
-        <v>79523.846375126581</v>
+        <f>K74*1.007</f>
+        <v>75129.030986292084</v>
       </c>
       <c r="L75">
         <v>74020.597883158698</v>
@@ -8187,7 +8235,7 @@
         <v>64</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95428615650151893</v>
       </c>
       <c r="F76">
@@ -8197,12 +8245,12 @@
         <v>43476</v>
       </c>
       <c r="J76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>75524.361615535425</v>
       </c>
       <c r="K76">
-        <f t="shared" si="9"/>
-        <v>80160.037146127594</v>
+        <f>K75*1.007</f>
+        <v>75654.934203196128</v>
       </c>
       <c r="L76">
         <v>74612.762666223964</v>
@@ -8230,8 +8278,8 @@
         <v>75977.507785228634</v>
       </c>
       <c r="K78">
-        <f t="shared" si="9"/>
-        <v>80801.317443296604</v>
+        <f>K76*1.007</f>
+        <v>76184.518742618486</v>
       </c>
       <c r="L78">
         <v>75209.664767553753</v>
@@ -8242,7 +8290,7 @@
         <v>66</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:B87" si="16">B78*1.008</f>
+        <f t="shared" ref="B79:B87" si="15">B78*1.008</f>
         <v>0.96961580931955937</v>
       </c>
       <c r="F79">
@@ -8252,12 +8300,12 @@
         <v>43480</v>
       </c>
       <c r="J79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>76433.372831940011</v>
       </c>
       <c r="K79">
-        <f t="shared" si="9"/>
-        <v>81447.727982842989</v>
+        <f>K78*1.007</f>
+        <v>76717.810373816814</v>
       </c>
       <c r="L79">
         <v>75811.342085694181</v>
@@ -8268,7 +8316,7 @@
         <v>67</v>
       </c>
       <c r="B80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.97737273579411588</v>
       </c>
       <c r="F80">
@@ -8278,12 +8326,12 @@
         <v>43481</v>
       </c>
       <c r="J80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>76891.973068931649</v>
       </c>
       <c r="K80">
-        <f t="shared" si="9"/>
-        <v>82099.309806705729</v>
+        <f>K79*1.007</f>
+        <v>77254.835046433524</v>
       </c>
       <c r="L80">
         <v>76417.832822379743</v>
@@ -8294,7 +8342,7 @@
         <v>68</v>
       </c>
       <c r="B81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.98519171768046876</v>
       </c>
       <c r="F81">
@@ -8304,12 +8352,12 @@
         <v>43482</v>
       </c>
       <c r="J81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>77353.324907345246</v>
       </c>
       <c r="K81">
-        <f t="shared" si="9"/>
-        <v>82756.104285159381</v>
+        <f>K80*1.007</f>
+        <v>77795.618891758553</v>
       </c>
       <c r="L81">
         <v>77029.175484958774</v>
@@ -8320,7 +8368,7 @@
         <v>69</v>
       </c>
       <c r="B82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.9930732514219125</v>
       </c>
       <c r="F82">
@@ -8330,12 +8378,12 @@
         <v>43483</v>
       </c>
       <c r="J82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>77817.444856789312</v>
       </c>
       <c r="K82">
-        <f t="shared" si="9"/>
-        <v>83418.153119440656</v>
+        <f>K81*1.007</f>
+        <v>78340.188224000856</v>
       </c>
       <c r="L82">
         <v>77645.408888838443</v>
@@ -8363,8 +8411,8 @@
         <v>78284.349525930054</v>
       </c>
       <c r="K84">
-        <f t="shared" si="9"/>
-        <v>84085.498344396183</v>
+        <f>K82*1.007</f>
+        <v>78888.569541568853</v>
       </c>
       <c r="L84">
         <v>78266.572159949152</v>
@@ -8375,7 +8423,7 @@
         <v>71</v>
       </c>
       <c r="B85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1.0090259801327541</v>
       </c>
       <c r="F85">
@@ -8385,12 +8433,12 @@
         <v>43487</v>
       </c>
       <c r="J85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>78754.055623085631</v>
       </c>
       <c r="K85">
-        <f t="shared" si="9"/>
-        <v>84758.182331151344</v>
+        <f>K84*1.007</f>
+        <v>79440.789528359834</v>
       </c>
       <c r="L85">
         <v>78892.704737228749</v>
@@ -8411,12 +8459,12 @@
         <v>43488</v>
       </c>
       <c r="J86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>79226.579956824149</v>
       </c>
       <c r="K86">
-        <f t="shared" si="9"/>
-        <v>85436.24778980056</v>
+        <f>K85*1.007</f>
+        <v>79996.87505505835</v>
       </c>
       <c r="L86">
         <v>79523.846375126581</v>
@@ -8427,7 +8475,7 @@
         <v>73</v>
       </c>
       <c r="B87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1.0252349734776067</v>
       </c>
       <c r="F87">
@@ -8437,12 +8485,12 @@
         <v>43489</v>
       </c>
       <c r="J87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>79701.939436565095</v>
       </c>
       <c r="K87">
-        <f t="shared" si="9"/>
-        <v>86119.73777211897</v>
+        <f>K86*1.007</f>
+        <v>80556.853180443752</v>
       </c>
       <c r="L87">
         <v>80160.037146127594</v>
@@ -8463,12 +8511,12 @@
         <v>43490</v>
       </c>
       <c r="J88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>80180.15107318449</v>
       </c>
       <c r="K88">
-        <f t="shared" si="9"/>
-        <v>86808.69567429593</v>
+        <f>K87*1.007</f>
+        <v>81120.751152706856</v>
       </c>
       <c r="L88">
         <v>80801.317443296604</v>
@@ -8493,8 +8541,8 @@
         <v>80661.231979623597</v>
       </c>
       <c r="K90">
-        <f t="shared" si="9"/>
-        <v>87503.165239690294</v>
+        <f>K88*1.007</f>
+        <v>81688.59641077579</v>
       </c>
       <c r="L90">
         <v>81447.727982842989</v>
@@ -8515,12 +8563,12 @@
         <v>43494</v>
       </c>
       <c r="J91">
-        <f>J90*1.006</f>
+        <f t="shared" ref="J91:J98" si="16">J90*1.006</f>
         <v>81145.199371501338</v>
       </c>
       <c r="K91">
-        <f t="shared" si="9"/>
-        <v>88203.190561607815</v>
+        <f t="shared" ref="K91:K94" si="17">K90*1.007</f>
+        <v>82260.416585651212</v>
       </c>
       <c r="L91">
         <v>82099.309806705729</v>
@@ -8531,7 +8579,7 @@
         <v>78</v>
       </c>
       <c r="B92">
-        <f t="shared" ref="B92:B94" si="17">B91*1.008</f>
+        <f t="shared" ref="B92:B94" si="18">B91*1.008</f>
         <v>1.0584382867392939</v>
       </c>
       <c r="F92">
@@ -8541,12 +8589,12 @@
         <v>43495</v>
       </c>
       <c r="J92">
-        <f>J91*1.006</f>
+        <f t="shared" si="16"/>
         <v>81632.070567730349</v>
       </c>
       <c r="K92">
-        <f t="shared" si="9"/>
-        <v>88908.816086100691</v>
+        <f t="shared" si="17"/>
+        <v>82836.239501750766</v>
       </c>
       <c r="L92">
         <v>82756.104285159381</v>
@@ -8557,7 +8605,7 @@
         <v>79</v>
       </c>
       <c r="B93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0669057930332082</v>
       </c>
       <c r="F93">
@@ -8567,12 +8615,12 @@
         <v>43496</v>
       </c>
       <c r="J93">
-        <f>J92*1.006</f>
+        <f t="shared" si="16"/>
         <v>82121.862991136732</v>
       </c>
       <c r="K93">
-        <f t="shared" si="9"/>
-        <v>89620.086614789485</v>
+        <f t="shared" si="17"/>
+        <v>83416.093178263007</v>
       </c>
       <c r="L93">
         <v>83418.153119440656</v>
@@ -8583,7 +8631,7 @@
         <v>80</v>
       </c>
       <c r="B94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0754410393774738</v>
       </c>
       <c r="F94">
@@ -8593,12 +8641,12 @@
         <v>43497</v>
       </c>
       <c r="J94">
-        <f>J93*1.006</f>
+        <f t="shared" si="16"/>
         <v>82614.594169083546</v>
       </c>
       <c r="K94">
-        <f t="shared" si="9"/>
-        <v>90337.047307707806</v>
+        <f t="shared" si="17"/>
+        <v>84000.00583051084</v>
       </c>
       <c r="L94">
         <v>84085.498344396183</v>
@@ -8606,25 +8654,25 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J95">
-        <f>J94*1.006</f>
+        <f t="shared" si="16"/>
         <v>83110.281734098055</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J96">
-        <f>J95*1.006</f>
+        <f t="shared" si="16"/>
         <v>83608.94342450265</v>
       </c>
     </row>
     <row r="97" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J97">
-        <f>J96*1.006</f>
+        <f t="shared" si="16"/>
         <v>84110.597085049667</v>
       </c>
     </row>
     <row r="98" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J98">
-        <f>J97*1.006</f>
+        <f t="shared" si="16"/>
         <v>84615.260667559967</v>
       </c>
     </row>
